--- a/result/basic_statistics/imputation/Forward-Backward/basic_statistics.xlsx
+++ b/result/basic_statistics/imputation/Forward-Backward/basic_statistics.xlsx
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27.12</v>
+        <v>27.1</v>
       </c>
       <c r="C2" t="n">
-        <v>14.47</v>
+        <v>14.45</v>
       </c>
       <c r="D2" t="n">
         <v>1.07</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F2" t="n">
         <v>6</v>
@@ -524,13 +524,13 @@
         <v>43.69</v>
       </c>
       <c r="C3" t="n">
-        <v>26.12</v>
+        <v>26.11</v>
       </c>
       <c r="D3" t="n">
         <v>1.34</v>
       </c>
       <c r="E3" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="F3" t="n">
         <v>8</v>
@@ -555,16 +555,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.85</v>
+        <v>53.83</v>
       </c>
       <c r="C4" t="n">
-        <v>53.73</v>
+        <v>53.72</v>
       </c>
       <c r="D4" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1</v>
+        <v>-0.09</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -589,10 +589,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85.51000000000001</v>
+        <v>85.52</v>
       </c>
       <c r="C5" t="n">
-        <v>81.86</v>
+        <v>81.88</v>
       </c>
       <c r="D5" t="n">
         <v>0.83</v>
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.59</v>
+        <v>45.56</v>
       </c>
       <c r="C6" t="n">
-        <v>26.56</v>
+        <v>26.54</v>
       </c>
       <c r="D6" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="E6" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="F6" t="n">
         <v>9</v>
@@ -660,13 +660,13 @@
         <v>42.94</v>
       </c>
       <c r="C7" t="n">
-        <v>25.79</v>
+        <v>25.78</v>
       </c>
       <c r="D7" t="n">
         <v>1.41</v>
       </c>
       <c r="E7" t="n">
-        <v>2.35</v>
+        <v>2.36</v>
       </c>
       <c r="F7" t="n">
         <v>8</v>
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.31</v>
+        <v>42.3</v>
       </c>
       <c r="C8" t="n">
-        <v>36.22</v>
+        <v>36.21</v>
       </c>
       <c r="D8" t="n">
         <v>0.78</v>
@@ -728,13 +728,13 @@
         <v>40.82</v>
       </c>
       <c r="C9" t="n">
-        <v>23.59</v>
+        <v>23.57</v>
       </c>
       <c r="D9" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="E9" t="n">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="F9" t="n">
         <v>10</v>
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>74.09</v>
+        <v>74.03</v>
       </c>
       <c r="C10" t="n">
-        <v>51.68</v>
+        <v>51.66</v>
       </c>
       <c r="D10" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="E10" t="n">
         <v>-0.12</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43.98</v>
+        <v>43.94</v>
       </c>
       <c r="C11" t="n">
-        <v>25.96</v>
+        <v>25.89</v>
       </c>
       <c r="D11" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="E11" t="n">
         <v>2.12</v>
@@ -830,7 +830,7 @@
         <v>52.57</v>
       </c>
       <c r="C12" t="n">
-        <v>44.8</v>
+        <v>44.79</v>
       </c>
       <c r="D12" t="n">
         <v>1.1</v>
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.6</v>
+        <v>105.59</v>
       </c>
       <c r="C13" t="n">
-        <v>96.48999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="D13" t="n">
         <v>0.79</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50.96</v>
+        <v>50.93</v>
       </c>
       <c r="C14" t="n">
-        <v>54.1</v>
+        <v>54.06</v>
       </c>
       <c r="D14" t="n">
         <v>0.98</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>44.36</v>
+        <v>44.32</v>
       </c>
       <c r="C15" t="n">
-        <v>25.92</v>
+        <v>25.88</v>
       </c>
       <c r="D15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="E15" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="F15" t="n">
         <v>9</v>
@@ -963,16 +963,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90.3</v>
+        <v>90.27</v>
       </c>
       <c r="C16" t="n">
-        <v>80.09999999999999</v>
+        <v>80.09</v>
       </c>
       <c r="D16" t="n">
         <v>0.96</v>
       </c>
       <c r="E16" t="n">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="F16" t="n">
         <v>2.4</v>
@@ -997,16 +997,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>41.7</v>
+        <v>41.69</v>
       </c>
       <c r="C17" t="n">
-        <v>25.24</v>
+        <v>25.26</v>
       </c>
       <c r="D17" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="E17" t="n">
-        <v>2.31</v>
+        <v>2.33</v>
       </c>
       <c r="F17" t="n">
         <v>9</v>
@@ -1031,16 +1031,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>45.63</v>
+        <v>45.61</v>
       </c>
       <c r="C18" t="n">
-        <v>25.86</v>
+        <v>25.83</v>
       </c>
       <c r="D18" t="n">
         <v>1.35</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="F18" t="n">
         <v>9</v>
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.73</v>
+        <v>49.75</v>
       </c>
       <c r="C19" t="n">
-        <v>45.19</v>
+        <v>45.22</v>
       </c>
       <c r="D19" t="n">
         <v>1.57</v>
@@ -1102,7 +1102,7 @@
         <v>42.96</v>
       </c>
       <c r="C20" t="n">
-        <v>25.3</v>
+        <v>25.29</v>
       </c>
       <c r="D20" t="n">
         <v>1.35</v>
@@ -1133,16 +1133,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>44.42</v>
+        <v>44.4</v>
       </c>
       <c r="C21" t="n">
-        <v>26.14</v>
+        <v>26.11</v>
       </c>
       <c r="D21" t="n">
         <v>1.38</v>
       </c>
       <c r="E21" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="F21" t="n">
         <v>9</v>
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.47</v>
+        <v>50.49</v>
       </c>
       <c r="C22" t="n">
-        <v>29.28</v>
+        <v>29.29</v>
       </c>
       <c r="D22" t="n">
         <v>1.31</v>
       </c>
       <c r="E22" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="F22" t="n">
         <v>12</v>
@@ -1201,10 +1201,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>67.38</v>
+        <v>67.33</v>
       </c>
       <c r="C23" t="n">
-        <v>60.22</v>
+        <v>60.15</v>
       </c>
       <c r="D23" t="n">
         <v>0.85</v>
@@ -1235,10 +1235,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>91.97</v>
+        <v>91.94</v>
       </c>
       <c r="C24" t="n">
-        <v>76.64</v>
+        <v>76.62</v>
       </c>
       <c r="D24" t="n">
         <v>0.96</v>
@@ -1269,16 +1269,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>20.5</v>
+        <v>20.49</v>
       </c>
       <c r="C25" t="n">
-        <v>18.37</v>
+        <v>18.35</v>
       </c>
       <c r="D25" t="n">
         <v>1.57</v>
       </c>
       <c r="E25" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1306,13 +1306,13 @@
         <v>13.74</v>
       </c>
       <c r="C26" t="n">
-        <v>12.71</v>
+        <v>12.7</v>
       </c>
       <c r="D26" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="E26" t="n">
-        <v>3.19</v>
+        <v>3.17</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1340,13 +1340,13 @@
         <v>24.43</v>
       </c>
       <c r="C27" t="n">
-        <v>17.33</v>
+        <v>17.34</v>
       </c>
       <c r="D27" t="n">
         <v>1.58</v>
       </c>
       <c r="E27" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1371,16 +1371,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>30.95</v>
+        <v>30.91</v>
       </c>
       <c r="C28" t="n">
-        <v>22.76</v>
+        <v>22.7</v>
       </c>
       <c r="D28" t="n">
         <v>1.36</v>
       </c>
       <c r="E28" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1405,10 +1405,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>20.43</v>
+        <v>20.42</v>
       </c>
       <c r="C29" t="n">
-        <v>15.17</v>
+        <v>15.15</v>
       </c>
       <c r="D29" t="n">
         <v>1.76</v>
@@ -1439,16 +1439,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>45.65</v>
+        <v>45.63</v>
       </c>
       <c r="C30" t="n">
-        <v>30.01</v>
+        <v>29.96</v>
       </c>
       <c r="D30" t="n">
         <v>1.08</v>
       </c>
       <c r="E30" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F30" t="n">
         <v>6</v>
@@ -1482,7 +1482,7 @@
         <v>1.05</v>
       </c>
       <c r="E31" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="F31" t="n">
         <v>12</v>
@@ -1507,16 +1507,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>27.34</v>
+        <v>27.35</v>
       </c>
       <c r="C32" t="n">
-        <v>14.57</v>
+        <v>14.56</v>
       </c>
       <c r="D32" t="n">
         <v>1.07</v>
       </c>
       <c r="E32" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="F32" t="n">
         <v>3</v>
@@ -1541,10 +1541,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>62.55</v>
+        <v>62.56</v>
       </c>
       <c r="C33" t="n">
-        <v>33.1</v>
+        <v>33.11</v>
       </c>
       <c r="D33" t="n">
         <v>1.07</v>
@@ -1575,7 +1575,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>52.33</v>
+        <v>52.34</v>
       </c>
       <c r="C34" t="n">
         <v>26.59</v>
@@ -1612,7 +1612,7 @@
         <v>66.17</v>
       </c>
       <c r="C35" t="n">
-        <v>35.03</v>
+        <v>35.02</v>
       </c>
       <c r="D35" t="n">
         <v>1.01</v>
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>60.1</v>
+        <v>60.11</v>
       </c>
       <c r="C36" t="n">
         <v>33.22</v>
@@ -1652,13 +1652,13 @@
         <v>1.11</v>
       </c>
       <c r="E36" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="F36" t="n">
         <v>12</v>
       </c>
       <c r="G36" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="H36" t="n">
         <v>54</v>
@@ -1677,10 +1677,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>61.64</v>
+        <v>61.65</v>
       </c>
       <c r="C37" t="n">
-        <v>30.23</v>
+        <v>30.22</v>
       </c>
       <c r="D37" t="n">
         <v>0.84</v>
@@ -1711,16 +1711,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>151.85</v>
+        <v>151.87</v>
       </c>
       <c r="C38" t="n">
-        <v>66.64</v>
+        <v>66.65000000000001</v>
       </c>
       <c r="D38" t="n">
         <v>0.83</v>
       </c>
       <c r="E38" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F38" t="n">
         <v>42</v>
@@ -1745,16 +1745,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>128.12</v>
+        <v>128.14</v>
       </c>
       <c r="C39" t="n">
-        <v>47.26</v>
+        <v>47.23</v>
       </c>
       <c r="D39" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.48</v>
+        <v>-0.49</v>
       </c>
       <c r="F39" t="n">
         <v>24</v>
@@ -1779,16 +1779,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>45.94</v>
+        <v>45.95</v>
       </c>
       <c r="C40" t="n">
-        <v>25.52</v>
+        <v>25.53</v>
       </c>
       <c r="D40" t="n">
         <v>1.01</v>
       </c>
       <c r="E40" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="F40" t="n">
         <v>7.5</v>
@@ -1813,16 +1813,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.32</v>
+        <v>47.31</v>
       </c>
       <c r="C41" t="n">
-        <v>34.75</v>
+        <v>34.73</v>
       </c>
       <c r="D41" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="E41" t="n">
-        <v>3.98</v>
+        <v>3.97</v>
       </c>
       <c r="F41" t="n">
         <v>7.2</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>19.64</v>
+        <v>19.65</v>
       </c>
       <c r="C42" t="n">
         <v>10.48</v>
@@ -1890,7 +1890,7 @@
         <v>1.32</v>
       </c>
       <c r="E43" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="F43" t="n">
         <v>6</v>
@@ -1918,13 +1918,13 @@
         <v>39.05</v>
       </c>
       <c r="C44" t="n">
-        <v>26.45</v>
+        <v>26.44</v>
       </c>
       <c r="D44" t="n">
-        <v>2.49</v>
+        <v>2.48</v>
       </c>
       <c r="E44" t="n">
-        <v>10.54</v>
+        <v>10.45</v>
       </c>
       <c r="F44" t="n">
         <v>7.2</v>
@@ -1936,7 +1936,7 @@
         <v>33.6</v>
       </c>
       <c r="I44" t="n">
-        <v>105.6</v>
+        <v>108</v>
       </c>
       <c r="J44" t="n">
         <v>280.8</v>
@@ -1949,16 +1949,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>38.3</v>
+        <v>38.27</v>
       </c>
       <c r="C45" t="n">
-        <v>23.01</v>
+        <v>22.99</v>
       </c>
       <c r="D45" t="n">
         <v>1.35</v>
       </c>
       <c r="E45" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="F45" t="n">
         <v>7.2</v>
@@ -1983,16 +1983,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25.99</v>
+        <v>26.13</v>
       </c>
       <c r="C46" t="n">
-        <v>20.5</v>
+        <v>20.59</v>
       </c>
       <c r="D46" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="E46" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>62.81</v>
       </c>
       <c r="C47" t="n">
-        <v>35.3</v>
+        <v>35.27</v>
       </c>
       <c r="D47" t="n">
         <v>1.23</v>
@@ -2051,16 +2051,16 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>27.54</v>
+        <v>27.53</v>
       </c>
       <c r="C48" t="n">
-        <v>15.89</v>
+        <v>15.87</v>
       </c>
       <c r="D48" t="n">
         <v>1.19</v>
       </c>
       <c r="E48" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="F48" t="n">
         <v>6</v>
@@ -2088,7 +2088,7 @@
         <v>27.71</v>
       </c>
       <c r="C49" t="n">
-        <v>15.83</v>
+        <v>15.82</v>
       </c>
       <c r="D49" t="n">
         <v>1.17</v>
@@ -2106,7 +2106,7 @@
         <v>24</v>
       </c>
       <c r="I49" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J49" t="n">
         <v>112</v>
@@ -2119,13 +2119,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>27.53</v>
+        <v>27.46</v>
       </c>
       <c r="C50" t="n">
-        <v>15.25</v>
+        <v>15.27</v>
       </c>
       <c r="D50" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="E50" t="n">
         <v>1.54</v>
@@ -2140,7 +2140,7 @@
         <v>24</v>
       </c>
       <c r="I50" t="n">
-        <v>67.2</v>
+        <v>66</v>
       </c>
       <c r="J50" t="n">
         <v>105.6</v>
@@ -2187,16 +2187,16 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>28.55</v>
+        <v>28.47</v>
       </c>
       <c r="C52" t="n">
-        <v>16.3</v>
+        <v>16.25</v>
       </c>
       <c r="D52" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="E52" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="F52" t="n">
         <v>6</v>
@@ -2224,7 +2224,7 @@
         <v>20.63</v>
       </c>
       <c r="C53" t="n">
-        <v>11.06</v>
+        <v>11.05</v>
       </c>
       <c r="D53" t="n">
         <v>1.15</v>
@@ -2255,13 +2255,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>24.09</v>
+        <v>24.07</v>
       </c>
       <c r="C54" t="n">
-        <v>12.86</v>
+        <v>12.85</v>
       </c>
       <c r="D54" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="E54" t="n">
         <v>1.6</v>
@@ -2289,22 +2289,22 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>20.46</v>
+        <v>20.36</v>
       </c>
       <c r="C55" t="n">
-        <v>10.51</v>
+        <v>10.56</v>
       </c>
       <c r="D55" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="E55" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="F55" t="n">
         <v>4.5</v>
       </c>
       <c r="G55" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="H55" t="n">
         <v>18</v>
@@ -2323,16 +2323,16 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>31.02</v>
+        <v>31.01</v>
       </c>
       <c r="C56" t="n">
-        <v>18.98</v>
+        <v>18.96</v>
       </c>
       <c r="D56" t="n">
         <v>1.26</v>
       </c>
       <c r="E56" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="F56" t="n">
         <v>7.2</v>
@@ -2357,10 +2357,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>58.12</v>
+        <v>58.15</v>
       </c>
       <c r="C57" t="n">
-        <v>32.51</v>
+        <v>32.5</v>
       </c>
       <c r="D57" t="n">
         <v>1.17</v>
@@ -2378,7 +2378,7 @@
         <v>51</v>
       </c>
       <c r="I57" t="n">
-        <v>138</v>
+        <v>139.5</v>
       </c>
       <c r="J57" t="n">
         <v>228</v>
@@ -2391,16 +2391,16 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>33.77</v>
+        <v>33.63</v>
       </c>
       <c r="C58" t="n">
         <v>20.47</v>
       </c>
       <c r="D58" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="E58" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="F58" t="n">
         <v>6</v>
@@ -2425,16 +2425,16 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>35.8</v>
+        <v>35.78</v>
       </c>
       <c r="C59" t="n">
-        <v>22.14</v>
+        <v>22.12</v>
       </c>
       <c r="D59" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="E59" t="n">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="F59" t="n">
         <v>7.2</v>
@@ -2459,16 +2459,16 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>49.41</v>
+        <v>49.37</v>
       </c>
       <c r="C60" t="n">
-        <v>28.16</v>
+        <v>28.12</v>
       </c>
       <c r="D60" t="n">
         <v>1.29</v>
       </c>
       <c r="E60" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="F60" t="n">
         <v>9</v>
@@ -2496,7 +2496,7 @@
         <v>29.61</v>
       </c>
       <c r="C61" t="n">
-        <v>17.45</v>
+        <v>17.44</v>
       </c>
       <c r="D61" t="n">
         <v>1.3</v>
@@ -2527,10 +2527,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>41.81</v>
+        <v>41.77</v>
       </c>
       <c r="C62" t="n">
-        <v>22.57</v>
+        <v>22.58</v>
       </c>
       <c r="D62" t="n">
         <v>1.33</v>
@@ -2561,16 +2561,16 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>28.38</v>
+        <v>28.36</v>
       </c>
       <c r="C63" t="n">
-        <v>15.61</v>
+        <v>15.58</v>
       </c>
       <c r="D63" t="n">
         <v>1.12</v>
       </c>
       <c r="E63" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="F63" t="n">
         <v>6</v>
@@ -2595,16 +2595,16 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>32.14</v>
+        <v>32.22</v>
       </c>
       <c r="C64" t="n">
-        <v>18.07</v>
+        <v>18.05</v>
       </c>
       <c r="D64" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="E64" t="n">
-        <v>2.03</v>
+        <v>1.91</v>
       </c>
       <c r="F64" t="n">
         <v>7.2</v>
@@ -2613,7 +2613,7 @@
         <v>9.6</v>
       </c>
       <c r="H64" t="n">
-        <v>26.4</v>
+        <v>28.8</v>
       </c>
       <c r="I64" t="n">
         <v>76.8</v>
@@ -2629,7 +2629,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>113.34</v>
+        <v>113.38</v>
       </c>
       <c r="C65" t="n">
         <v>52.87</v>
@@ -2638,7 +2638,7 @@
         <v>0.88</v>
       </c>
       <c r="E65" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="F65" t="n">
         <v>30</v>
@@ -2647,7 +2647,7 @@
         <v>40</v>
       </c>
       <c r="H65" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I65" t="n">
         <v>236</v>
@@ -2663,16 +2663,16 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>82.72</v>
+        <v>82.76000000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>39.97</v>
+        <v>39.96</v>
       </c>
       <c r="D66" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.22</v>
+        <v>-0.23</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -2697,16 +2697,16 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>134.07</v>
+        <v>134.23</v>
       </c>
       <c r="C67" t="n">
-        <v>61.46</v>
+        <v>61.48</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="E67" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="F67" t="n">
         <v>36</v>
@@ -2718,7 +2718,7 @@
         <v>124</v>
       </c>
       <c r="I67" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="J67" t="n">
         <v>446</v>
@@ -2731,16 +2731,16 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>146.23</v>
+        <v>146.15</v>
       </c>
       <c r="C68" t="n">
-        <v>68.54000000000001</v>
+        <v>68.34999999999999</v>
       </c>
       <c r="D68" t="n">
         <v>0.89</v>
       </c>
       <c r="E68" t="n">
-        <v>0.54</v>
+        <v>0.52</v>
       </c>
       <c r="F68" t="n">
         <v>38.4</v>
@@ -2752,7 +2752,7 @@
         <v>134.4</v>
       </c>
       <c r="I68" t="n">
-        <v>309.6</v>
+        <v>307.2</v>
       </c>
       <c r="J68" t="n">
         <v>487.2</v>
@@ -2765,16 +2765,16 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>162.16</v>
+        <v>162.14</v>
       </c>
       <c r="C69" t="n">
-        <v>69.98</v>
+        <v>69.88</v>
       </c>
       <c r="D69" t="n">
         <v>0.78</v>
       </c>
       <c r="E69" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -2799,7 +2799,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>170.26</v>
+        <v>170.29</v>
       </c>
       <c r="C70" t="n">
         <v>77.8</v>
@@ -2833,10 +2833,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>177.71</v>
+        <v>177.75</v>
       </c>
       <c r="C71" t="n">
-        <v>76.36</v>
+        <v>76.34</v>
       </c>
       <c r="D71" t="n">
         <v>0.68</v>
@@ -2851,7 +2851,7 @@
         <v>64.8</v>
       </c>
       <c r="H71" t="n">
-        <v>163.2</v>
+        <v>165.6</v>
       </c>
       <c r="I71" t="n">
         <v>352.8</v>
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>223.51</v>
+        <v>223.54</v>
       </c>
       <c r="C72" t="n">
-        <v>108.66</v>
+        <v>108.62</v>
       </c>
       <c r="D72" t="n">
         <v>0.93</v>
@@ -2901,10 +2901,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>64.79000000000001</v>
+        <v>64.81999999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>34.21</v>
+        <v>34.19</v>
       </c>
       <c r="D73" t="n">
         <v>1.02</v>
@@ -2938,13 +2938,13 @@
         <v>58.3</v>
       </c>
       <c r="C74" t="n">
-        <v>30.38</v>
+        <v>30.36</v>
       </c>
       <c r="D74" t="n">
         <v>1.02</v>
       </c>
       <c r="E74" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="F74" t="n">
         <v>15</v>
@@ -2969,10 +2969,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>70.40000000000001</v>
+        <v>70.41</v>
       </c>
       <c r="C75" t="n">
-        <v>36.78</v>
+        <v>36.76</v>
       </c>
       <c r="D75" t="n">
         <v>1.07</v>
@@ -3003,16 +3003,16 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>47.55</v>
+        <v>47.58</v>
       </c>
       <c r="C76" t="n">
-        <v>25.78</v>
+        <v>25.77</v>
       </c>
       <c r="D76" t="n">
         <v>1.07</v>
       </c>
       <c r="E76" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F76" t="n">
         <v>10</v>
@@ -3040,13 +3040,13 @@
         <v>70.62</v>
       </c>
       <c r="C77" t="n">
-        <v>37.5</v>
+        <v>37.48</v>
       </c>
       <c r="D77" t="n">
         <v>1.06</v>
       </c>
       <c r="E77" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="F77" t="n">
         <v>15</v>
@@ -3071,10 +3071,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>73.47</v>
+        <v>73.51000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>35.56</v>
+        <v>35.55</v>
       </c>
       <c r="D78" t="n">
         <v>0.93</v>
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>72.02</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>36.91</v>
+        <v>36.92</v>
       </c>
       <c r="D79" t="n">
         <v>0.99</v>
@@ -3139,16 +3139,16 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>73.98</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>39.05</v>
+        <v>39.02</v>
       </c>
       <c r="D80" t="n">
         <v>1.1</v>
       </c>
       <c r="E80" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="F80" t="n">
         <v>15</v>
@@ -3173,13 +3173,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>66.81999999999999</v>
+        <v>66.84999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>34.38</v>
+        <v>34.37</v>
       </c>
       <c r="D81" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="E81" t="n">
         <v>0.64</v>
@@ -3207,16 +3207,16 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>72.73</v>
+        <v>72.72</v>
       </c>
       <c r="C82" t="n">
-        <v>37.34</v>
+        <v>37.29</v>
       </c>
       <c r="D82" t="n">
         <v>1.01</v>
       </c>
       <c r="E82" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="F82" t="n">
         <v>15</v>
@@ -3247,10 +3247,10 @@
         <v>6.81</v>
       </c>
       <c r="D83" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="E83" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="F83" t="n">
         <v>3</v>
@@ -3281,10 +3281,10 @@
         <v>4.27</v>
       </c>
       <c r="D84" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="E84" t="n">
-        <v>3.94</v>
+        <v>3.93</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -3309,7 +3309,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>60.05</v>
+        <v>60.06</v>
       </c>
       <c r="C85" t="n">
         <v>25.45</v>
@@ -3318,7 +3318,7 @@
         <v>0.99</v>
       </c>
       <c r="E85" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="F85" t="n">
         <v>20.8</v>
@@ -3330,7 +3330,7 @@
         <v>54.4</v>
       </c>
       <c r="I85" t="n">
-        <v>121.6</v>
+        <v>120</v>
       </c>
       <c r="J85" t="n">
         <v>203.2</v>
@@ -3346,13 +3346,13 @@
         <v>11.1</v>
       </c>
       <c r="C86" t="n">
-        <v>5.68</v>
+        <v>5.67</v>
       </c>
       <c r="D86" t="n">
         <v>1.07</v>
       </c>
       <c r="E86" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3377,10 +3377,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>72.91</v>
+        <v>72.92</v>
       </c>
       <c r="C87" t="n">
-        <v>39.99</v>
+        <v>39.98</v>
       </c>
       <c r="D87" t="n">
         <v>0.91</v>
@@ -3411,16 +3411,16 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>63.53</v>
+        <v>63.62</v>
       </c>
       <c r="C88" t="n">
-        <v>31.06</v>
+        <v>31.08</v>
       </c>
       <c r="D88" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="E88" t="n">
-        <v>0.22</v>
+        <v>0.19</v>
       </c>
       <c r="F88" t="n">
         <v>12</v>
@@ -3448,7 +3448,7 @@
         <v>88.47</v>
       </c>
       <c r="C89" t="n">
-        <v>45.95</v>
+        <v>45.93</v>
       </c>
       <c r="D89" t="n">
         <v>1.02</v>
@@ -3463,7 +3463,7 @@
         <v>27</v>
       </c>
       <c r="H89" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I89" t="n">
         <v>201</v>
@@ -3479,13 +3479,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>94.3</v>
+        <v>94.31</v>
       </c>
       <c r="C90" t="n">
         <v>46.48</v>
       </c>
       <c r="D90" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="E90" t="n">
         <v>0.4</v>
@@ -3516,7 +3516,7 @@
         <v>60.38</v>
       </c>
       <c r="C91" t="n">
-        <v>29.28</v>
+        <v>29.26</v>
       </c>
       <c r="D91" t="n">
         <v>0.73</v>
@@ -3547,10 +3547,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>87.15000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>51.99</v>
+        <v>51.9</v>
       </c>
       <c r="D92" t="n">
         <v>1.19</v>
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>118</v>
+        <v>117.99</v>
       </c>
       <c r="C93" t="n">
-        <v>46.97</v>
+        <v>46.95</v>
       </c>
       <c r="D93" t="n">
         <v>0.5600000000000001</v>
@@ -3615,10 +3615,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>141.53</v>
+        <v>141.54</v>
       </c>
       <c r="C94" t="n">
-        <v>59.38</v>
+        <v>59.39</v>
       </c>
       <c r="D94" t="n">
         <v>0.72</v>
@@ -3649,10 +3649,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>105.01</v>
+        <v>104.88</v>
       </c>
       <c r="C95" t="n">
-        <v>49.79</v>
+        <v>49.66</v>
       </c>
       <c r="D95" t="n">
         <v>0.91</v>
@@ -3683,10 +3683,10 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>93.88</v>
+        <v>93.89</v>
       </c>
       <c r="C96" t="n">
-        <v>37.3</v>
+        <v>37.26</v>
       </c>
       <c r="D96" t="n">
         <v>0.87</v>
@@ -3717,16 +3717,16 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>7.03</v>
+        <v>7.04</v>
       </c>
       <c r="C97" t="n">
-        <v>6.59</v>
+        <v>6.6</v>
       </c>
       <c r="D97" t="n">
         <v>1.32</v>
       </c>
       <c r="E97" t="n">
-        <v>2.53</v>
+        <v>2.51</v>
       </c>
       <c r="F97" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>46.09</v>
+        <v>46.1</v>
       </c>
       <c r="C98" t="n">
         <v>24.1</v>
@@ -3785,7 +3785,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>42.18</v>
+        <v>42.19</v>
       </c>
       <c r="C99" t="n">
         <v>24.1</v>
@@ -3794,7 +3794,7 @@
         <v>1.16</v>
       </c>
       <c r="E99" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="F99" t="n">
         <v>9</v>
@@ -3856,13 +3856,13 @@
         <v>46.58</v>
       </c>
       <c r="C101" t="n">
-        <v>23.63</v>
+        <v>23.61</v>
       </c>
       <c r="D101" t="n">
         <v>1.04</v>
       </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
@@ -3890,13 +3890,13 @@
         <v>46.12</v>
       </c>
       <c r="C102" t="n">
-        <v>25.14</v>
+        <v>25.12</v>
       </c>
       <c r="D102" t="n">
         <v>1.07</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F102" t="n">
         <v>9</v>
@@ -3924,13 +3924,13 @@
         <v>7.67</v>
       </c>
       <c r="C103" t="n">
-        <v>6.83</v>
+        <v>6.82</v>
       </c>
       <c r="D103" t="n">
         <v>1.29</v>
       </c>
       <c r="E103" t="n">
-        <v>2.45</v>
+        <v>2.44</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
@@ -3955,10 +3955,10 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>28.2</v>
+        <v>28.19</v>
       </c>
       <c r="C104" t="n">
-        <v>14.94</v>
+        <v>14.92</v>
       </c>
       <c r="D104" t="n">
         <v>1.13</v>
@@ -4057,10 +4057,10 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>39.23</v>
+        <v>39.24</v>
       </c>
       <c r="C107" t="n">
-        <v>19.89</v>
+        <v>19.88</v>
       </c>
       <c r="D107" t="n">
         <v>1.05</v>
@@ -4091,10 +4091,10 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>43.38</v>
+        <v>43.39</v>
       </c>
       <c r="C108" t="n">
-        <v>23.87</v>
+        <v>23.88</v>
       </c>
       <c r="D108" t="n">
         <v>1.13</v>
@@ -4134,7 +4134,7 @@
         <v>1.48</v>
       </c>
       <c r="E109" t="n">
-        <v>2.66</v>
+        <v>2.67</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -4162,7 +4162,7 @@
         <v>33.23</v>
       </c>
       <c r="C110" t="n">
-        <v>17.85</v>
+        <v>17.84</v>
       </c>
       <c r="D110" t="n">
         <v>1.03</v>
@@ -4193,16 +4193,16 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>68.7</v>
+        <v>68.69</v>
       </c>
       <c r="C111" t="n">
-        <v>41.42</v>
+        <v>41.41</v>
       </c>
       <c r="D111" t="n">
         <v>0.92</v>
       </c>
       <c r="E111" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="F111" t="n">
         <v>6</v>
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>25.76</v>
+        <v>25.77</v>
       </c>
       <c r="C112" t="n">
         <v>13.6</v>
@@ -4261,16 +4261,16 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>26.73</v>
+        <v>26.74</v>
       </c>
       <c r="C113" t="n">
-        <v>14.44</v>
+        <v>14.43</v>
       </c>
       <c r="D113" t="n">
         <v>1.24</v>
       </c>
       <c r="E113" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="F113" t="n">
         <v>6</v>
@@ -4295,16 +4295,16 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>25.76</v>
+        <v>25.77</v>
       </c>
       <c r="C114" t="n">
-        <v>14.32</v>
+        <v>14.33</v>
       </c>
       <c r="D114" t="n">
         <v>1.07</v>
       </c>
       <c r="E114" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="F114" t="n">
         <v>6</v>
@@ -4363,16 +4363,16 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>35.66</v>
+        <v>35.67</v>
       </c>
       <c r="C116" t="n">
-        <v>20.32</v>
+        <v>20.31</v>
       </c>
       <c r="D116" t="n">
         <v>1.05</v>
       </c>
       <c r="E116" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F116" t="n">
         <v>6</v>
@@ -4397,10 +4397,10 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>67.5</v>
+        <v>67.48</v>
       </c>
       <c r="C117" t="n">
-        <v>34.73</v>
+        <v>34.7</v>
       </c>
       <c r="D117" t="n">
         <v>0.83</v>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H117" t="n">
         <v>60</v>
@@ -4474,7 +4474,7 @@
         <v>1.15</v>
       </c>
       <c r="E119" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="F119" t="n">
         <v>0</v>
@@ -4499,16 +4499,16 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>44.22</v>
+        <v>44.23</v>
       </c>
       <c r="C120" t="n">
-        <v>24.67</v>
+        <v>24.64</v>
       </c>
       <c r="D120" t="n">
         <v>1.11</v>
       </c>
       <c r="E120" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="F120" t="n">
         <v>9</v>
@@ -4536,7 +4536,7 @@
         <v>42.87</v>
       </c>
       <c r="C121" t="n">
-        <v>23.84</v>
+        <v>23.83</v>
       </c>
       <c r="D121" t="n">
         <v>1.16</v>
@@ -4567,10 +4567,10 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>90.62</v>
+        <v>90.63</v>
       </c>
       <c r="C122" t="n">
-        <v>49.23</v>
+        <v>49.22</v>
       </c>
       <c r="D122" t="n">
         <v>0.92</v>
@@ -4601,10 +4601,10 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>63.4</v>
+        <v>63.39</v>
       </c>
       <c r="C123" t="n">
-        <v>32.82</v>
+        <v>32.78</v>
       </c>
       <c r="D123" t="n">
         <v>1.1</v>
@@ -4635,10 +4635,10 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>85.65000000000001</v>
+        <v>85.66</v>
       </c>
       <c r="C124" t="n">
-        <v>45</v>
+        <v>44.99</v>
       </c>
       <c r="D124" t="n">
         <v>0.95</v>
@@ -4669,7 +4669,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>52.09</v>
+        <v>52.1</v>
       </c>
       <c r="C125" t="n">
         <v>24.79</v>
@@ -4678,7 +4678,7 @@
         <v>0.9</v>
       </c>
       <c r="E125" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="F125" t="n">
         <v>12</v>
@@ -4703,10 +4703,10 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>62.44</v>
+        <v>62.45</v>
       </c>
       <c r="C126" t="n">
-        <v>30.39</v>
+        <v>30.38</v>
       </c>
       <c r="D126" t="n">
         <v>0.77</v>
@@ -4740,7 +4740,7 @@
         <v>49.79</v>
       </c>
       <c r="C127" t="n">
-        <v>26.25</v>
+        <v>26.23</v>
       </c>
       <c r="D127" t="n">
         <v>1.05</v>
@@ -4774,7 +4774,7 @@
         <v>39.63</v>
       </c>
       <c r="C128" t="n">
-        <v>23.08</v>
+        <v>23.09</v>
       </c>
       <c r="D128" t="n">
         <v>0.77</v>
@@ -4808,13 +4808,13 @@
         <v>65.97</v>
       </c>
       <c r="C129" t="n">
-        <v>33.11</v>
+        <v>33.1</v>
       </c>
       <c r="D129" t="n">
         <v>0.98</v>
       </c>
       <c r="E129" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="F129" t="n">
         <v>15</v>
@@ -4839,10 +4839,10 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>57.8</v>
+        <v>57.82</v>
       </c>
       <c r="C130" t="n">
-        <v>30.5</v>
+        <v>30.49</v>
       </c>
       <c r="D130" t="n">
         <v>1</v>
@@ -4876,13 +4876,13 @@
         <v>18.26</v>
       </c>
       <c r="C131" t="n">
-        <v>8.76</v>
+        <v>8.75</v>
       </c>
       <c r="D131" t="n">
         <v>1.21</v>
       </c>
       <c r="E131" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="F131" t="n">
         <v>3</v>
@@ -4907,16 +4907,16 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>82.79000000000001</v>
+        <v>82.77</v>
       </c>
       <c r="C132" t="n">
-        <v>43.16</v>
+        <v>43.13</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="E132" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
@@ -4941,7 +4941,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>55.44</v>
+        <v>55.32</v>
       </c>
       <c r="C133" t="n">
         <v>27.08</v>
@@ -4978,13 +4978,13 @@
         <v>0.4</v>
       </c>
       <c r="C134" t="n">
-        <v>5.11</v>
+        <v>5.12</v>
       </c>
       <c r="D134" t="n">
-        <v>14.33</v>
+        <v>14.28</v>
       </c>
       <c r="E134" t="n">
-        <v>223.79</v>
+        <v>222.35</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
@@ -5009,7 +5009,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>55.03</v>
+        <v>54.99</v>
       </c>
       <c r="C135" t="n">
         <v>26.83</v>
@@ -5018,7 +5018,7 @@
         <v>0.95</v>
       </c>
       <c r="E135" t="n">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="F135" t="n">
         <v>12</v>
@@ -5043,7 +5043,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>57.1</v>
+        <v>56.98</v>
       </c>
       <c r="C136" t="n">
         <v>27.03</v>
@@ -5052,7 +5052,7 @@
         <v>0.84</v>
       </c>
       <c r="E136" t="n">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="F136" t="n">
         <v>12</v>
@@ -5077,16 +5077,16 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>52.08</v>
+        <v>51.83</v>
       </c>
       <c r="C137" t="n">
-        <v>24.59</v>
+        <v>24.54</v>
       </c>
       <c r="D137" t="n">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="E137" t="n">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="F137" t="n">
         <v>10</v>
@@ -5111,10 +5111,10 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>62.4</v>
+        <v>62.27</v>
       </c>
       <c r="C138" t="n">
-        <v>29.74</v>
+        <v>29.77</v>
       </c>
       <c r="D138" t="n">
         <v>0.93</v>
@@ -5129,7 +5129,7 @@
         <v>22.5</v>
       </c>
       <c r="H138" t="n">
-        <v>57.5</v>
+        <v>55</v>
       </c>
       <c r="I138" t="n">
         <v>132.5</v>
@@ -5145,16 +5145,16 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>34.94</v>
+        <v>34.74</v>
       </c>
       <c r="C139" t="n">
-        <v>16.6</v>
+        <v>16.64</v>
       </c>
       <c r="D139" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E139" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="F139" t="n">
         <v>7.2</v>
@@ -5179,16 +5179,16 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>86.05</v>
+        <v>85.87</v>
       </c>
       <c r="C140" t="n">
-        <v>41.83</v>
+        <v>41.85</v>
       </c>
       <c r="D140" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="E140" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="F140" t="n">
         <v>24</v>
@@ -5213,10 +5213,10 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>129.97</v>
+        <v>129.75</v>
       </c>
       <c r="C141" t="n">
-        <v>65.67</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="D141" t="n">
         <v>0.95</v>
@@ -5247,16 +5247,16 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>6.66</v>
+        <v>6.65</v>
       </c>
       <c r="C142" t="n">
-        <v>23.73</v>
+        <v>23.76</v>
       </c>
       <c r="D142" t="n">
-        <v>3.96</v>
+        <v>3.95</v>
       </c>
       <c r="E142" t="n">
-        <v>16.58</v>
+        <v>16.5</v>
       </c>
       <c r="F142" t="n">
         <v>0</v>
@@ -5281,16 +5281,16 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>62.44</v>
+        <v>62.31</v>
       </c>
       <c r="C143" t="n">
-        <v>31.06</v>
+        <v>31.09</v>
       </c>
       <c r="D143" t="n">
         <v>0.98</v>
       </c>
       <c r="E143" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F143" t="n">
         <v>12</v>
@@ -5315,10 +5315,10 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>181.07</v>
+        <v>180.62</v>
       </c>
       <c r="C144" t="n">
-        <v>95.13</v>
+        <v>95.15000000000001</v>
       </c>
       <c r="D144" t="n">
         <v>0.97</v>
@@ -5336,7 +5336,7 @@
         <v>160.8</v>
       </c>
       <c r="I144" t="n">
-        <v>412.8</v>
+        <v>410.4</v>
       </c>
       <c r="J144" t="n">
         <v>597.6</v>
@@ -5349,10 +5349,10 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>54.94</v>
+        <v>54.84</v>
       </c>
       <c r="C145" t="n">
-        <v>26.94</v>
+        <v>26.97</v>
       </c>
       <c r="D145" t="n">
         <v>1.01</v>
@@ -5383,10 +5383,10 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>91.06</v>
+        <v>90.87</v>
       </c>
       <c r="C146" t="n">
-        <v>43.51</v>
+        <v>43.54</v>
       </c>
       <c r="D146" t="n">
         <v>0.84</v>
@@ -5417,16 +5417,16 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>68.14</v>
+        <v>68.44</v>
       </c>
       <c r="C147" t="n">
-        <v>33.85</v>
+        <v>34.05</v>
       </c>
       <c r="D147" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="E147" t="n">
-        <v>0.66</v>
+        <v>0.59</v>
       </c>
       <c r="F147" t="n">
         <v>15</v>
@@ -5435,7 +5435,7 @@
         <v>21</v>
       </c>
       <c r="H147" t="n">
-        <v>60</v>
+        <v>61.5</v>
       </c>
       <c r="I147" t="n">
         <v>150</v>
@@ -5451,10 +5451,10 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>90.34</v>
+        <v>90.19</v>
       </c>
       <c r="C148" t="n">
-        <v>43.19</v>
+        <v>43.17</v>
       </c>
       <c r="D148" t="n">
         <v>0.87</v>
@@ -5485,16 +5485,16 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>61.33</v>
+        <v>61.17</v>
       </c>
       <c r="C149" t="n">
         <v>32</v>
       </c>
       <c r="D149" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="E149" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F149" t="n">
         <v>12</v>
@@ -5519,13 +5519,13 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>71.67</v>
+        <v>71.52</v>
       </c>
       <c r="C150" t="n">
-        <v>36.51</v>
+        <v>36.52</v>
       </c>
       <c r="D150" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
         <v>0.73</v>
@@ -5553,10 +5553,10 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>68.98999999999999</v>
+        <v>68.84999999999999</v>
       </c>
       <c r="C151" t="n">
-        <v>33.43</v>
+        <v>33.44</v>
       </c>
       <c r="D151" t="n">
         <v>0.86</v>
@@ -5587,16 +5587,16 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>49.4</v>
+        <v>49.31</v>
       </c>
       <c r="C152" t="n">
-        <v>26.15</v>
+        <v>26.13</v>
       </c>
       <c r="D152" t="n">
         <v>1.06</v>
       </c>
       <c r="E152" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="F152" t="n">
         <v>4</v>
@@ -5621,16 +5621,16 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>116.16</v>
+        <v>115.95</v>
       </c>
       <c r="C153" t="n">
-        <v>48.25</v>
+        <v>48.32</v>
       </c>
       <c r="D153" t="n">
         <v>0.76</v>
       </c>
       <c r="E153" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="F153" t="n">
         <v>33</v>
@@ -5639,7 +5639,7 @@
         <v>48</v>
       </c>
       <c r="H153" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I153" t="n">
         <v>225</v>
@@ -5655,10 +5655,10 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>86.09</v>
+        <v>85.91</v>
       </c>
       <c r="C154" t="n">
-        <v>42.33</v>
+        <v>42.34</v>
       </c>
       <c r="D154" t="n">
         <v>0.93</v>
@@ -5689,13 +5689,13 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>92.36</v>
+        <v>92.19</v>
       </c>
       <c r="C155" t="n">
-        <v>45.07</v>
+        <v>45.1</v>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="E155" t="n">
         <v>1.13</v>
@@ -5723,16 +5723,16 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>69.09</v>
+        <v>68.95999999999999</v>
       </c>
       <c r="C156" t="n">
-        <v>34.82</v>
+        <v>34.83</v>
       </c>
       <c r="D156" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E156" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="F156" t="n">
         <v>16.8</v>
@@ -5757,7 +5757,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>80.19</v>
+        <v>80</v>
       </c>
       <c r="C157" t="n">
         <v>40.97</v>
@@ -5766,7 +5766,7 @@
         <v>0.98</v>
       </c>
       <c r="E157" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="F157" t="n">
         <v>17.5</v>
@@ -5791,13 +5791,13 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>37.62</v>
+        <v>37.54</v>
       </c>
       <c r="C158" t="n">
         <v>18.79</v>
       </c>
       <c r="D158" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="E158" t="n">
         <v>0.9399999999999999</v>
@@ -5825,13 +5825,13 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>167.36</v>
+        <v>167.01</v>
       </c>
       <c r="C159" t="n">
-        <v>80.67</v>
+        <v>80.78</v>
       </c>
       <c r="D159" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="E159" t="n">
         <v>0.3</v>
@@ -5859,16 +5859,16 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>79.53</v>
+        <v>79.18000000000001</v>
       </c>
       <c r="C160" t="n">
-        <v>37.42</v>
+        <v>37.33</v>
       </c>
       <c r="D160" t="n">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="E160" t="n">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="F160" t="n">
         <v>21</v>
@@ -5893,10 +5893,10 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>105.37</v>
+        <v>105.17</v>
       </c>
       <c r="C161" t="n">
-        <v>51</v>
+        <v>51.04</v>
       </c>
       <c r="D161" t="n">
         <v>1</v>
@@ -5927,10 +5927,10 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>104.81</v>
+        <v>104.62</v>
       </c>
       <c r="C162" t="n">
-        <v>51.87</v>
+        <v>51.92</v>
       </c>
       <c r="D162" t="n">
         <v>0.96</v>
@@ -5945,7 +5945,7 @@
         <v>36</v>
       </c>
       <c r="H162" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I162" t="n">
         <v>228</v>
@@ -5961,13 +5961,13 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>57.24</v>
+        <v>57.07</v>
       </c>
       <c r="C163" t="n">
-        <v>26.5</v>
+        <v>26.55</v>
       </c>
       <c r="D163" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="E163" t="n">
         <v>0.61</v>
@@ -5995,16 +5995,16 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>108.42</v>
+        <v>108.19</v>
       </c>
       <c r="C164" t="n">
-        <v>51.79</v>
+        <v>51.84</v>
       </c>
       <c r="D164" t="n">
         <v>1.07</v>
       </c>
       <c r="E164" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="F164" t="n">
         <v>27</v>
@@ -6029,13 +6029,13 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>66.20999999999999</v>
+        <v>66.09</v>
       </c>
       <c r="C165" t="n">
-        <v>31.83</v>
+        <v>31.88</v>
       </c>
       <c r="D165" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="E165" t="n">
         <v>0.6</v>
@@ -6063,10 +6063,10 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>95.92</v>
+        <v>95.75</v>
       </c>
       <c r="C166" t="n">
-        <v>44.13</v>
+        <v>44.15</v>
       </c>
       <c r="D166" t="n">
         <v>0.89</v>
@@ -6097,13 +6097,13 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>37.73</v>
+        <v>37.59</v>
       </c>
       <c r="C167" t="n">
-        <v>20.58</v>
+        <v>20.54</v>
       </c>
       <c r="D167" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="E167" t="n">
         <v>1.14</v>
@@ -6118,7 +6118,7 @@
         <v>33</v>
       </c>
       <c r="I167" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J167" t="n">
         <v>144</v>
@@ -6131,13 +6131,13 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>82.26000000000001</v>
+        <v>82.08</v>
       </c>
       <c r="C168" t="n">
-        <v>42</v>
+        <v>42.01</v>
       </c>
       <c r="D168" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="E168" t="n">
         <v>0.43</v>
@@ -6152,7 +6152,7 @@
         <v>72</v>
       </c>
       <c r="I168" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J168" t="n">
         <v>273</v>
@@ -6199,16 +6199,16 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>86.40000000000001</v>
+        <v>86.23999999999999</v>
       </c>
       <c r="C170" t="n">
-        <v>39.43</v>
+        <v>39.42</v>
       </c>
       <c r="D170" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="E170" t="n">
-        <v>0.4</v>
+        <v>0.41</v>
       </c>
       <c r="F170" t="n">
         <v>24</v>
@@ -6217,7 +6217,7 @@
         <v>33</v>
       </c>
       <c r="H170" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I170" t="n">
         <v>180</v>
@@ -6233,10 +6233,10 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>106.73</v>
+        <v>106.5</v>
       </c>
       <c r="C171" t="n">
-        <v>51.58</v>
+        <v>51.6</v>
       </c>
       <c r="D171" t="n">
         <v>0.88</v>
@@ -6267,13 +6267,13 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>58.96</v>
+        <v>58.84</v>
       </c>
       <c r="C172" t="n">
-        <v>28.61</v>
+        <v>28.63</v>
       </c>
       <c r="D172" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="E172" t="n">
         <v>0.45</v>
@@ -6301,10 +6301,10 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>81.87</v>
+        <v>81.70999999999999</v>
       </c>
       <c r="C173" t="n">
-        <v>33.67</v>
+        <v>33.72</v>
       </c>
       <c r="D173" t="n">
         <v>0.9</v>
@@ -6335,16 +6335,16 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>96.84999999999999</v>
+        <v>96.67</v>
       </c>
       <c r="C174" t="n">
-        <v>46.89</v>
+        <v>46.93</v>
       </c>
       <c r="D174" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="E174" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="F174" t="n">
         <v>24</v>
@@ -6369,16 +6369,16 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>75.29000000000001</v>
+        <v>75.2</v>
       </c>
       <c r="C175" t="n">
-        <v>36.2</v>
+        <v>36.17</v>
       </c>
       <c r="D175" t="n">
         <v>0.95</v>
       </c>
       <c r="E175" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="F175" t="n">
         <v>15</v>
@@ -6403,10 +6403,10 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>54</v>
+        <v>53.88</v>
       </c>
       <c r="C176" t="n">
-        <v>24.68</v>
+        <v>24.73</v>
       </c>
       <c r="D176" t="n">
         <v>0.75</v>
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>59.63</v>
+        <v>59.51</v>
       </c>
       <c r="C177" t="n">
-        <v>31.88</v>
+        <v>31.87</v>
       </c>
       <c r="D177" t="n">
         <v>1.07</v>
       </c>
       <c r="E177" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -6458,7 +6458,7 @@
         <v>52</v>
       </c>
       <c r="I177" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J177" t="n">
         <v>204</v>
@@ -6471,10 +6471,10 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>99.55</v>
+        <v>99.38</v>
       </c>
       <c r="C178" t="n">
-        <v>47.41</v>
+        <v>47.44</v>
       </c>
       <c r="D178" t="n">
         <v>0.96</v>
@@ -6505,16 +6505,16 @@
         </is>
       </c>
       <c r="B179" t="n">
-        <v>75.23</v>
+        <v>75.08</v>
       </c>
       <c r="C179" t="n">
-        <v>33.76</v>
+        <v>33.8</v>
       </c>
       <c r="D179" t="n">
         <v>0.77</v>
       </c>
       <c r="E179" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="F179" t="n">
         <v>18</v>
@@ -6539,10 +6539,10 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>104.14</v>
+        <v>103.95</v>
       </c>
       <c r="C180" t="n">
-        <v>48.89</v>
+        <v>48.93</v>
       </c>
       <c r="D180" t="n">
         <v>1.02</v>
@@ -6573,16 +6573,16 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>52.52</v>
+        <v>52.42</v>
       </c>
       <c r="C181" t="n">
-        <v>26.88</v>
+        <v>26.89</v>
       </c>
       <c r="D181" t="n">
         <v>1.08</v>
       </c>
       <c r="E181" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="F181" t="n">
         <v>12.8</v>
@@ -6607,13 +6607,13 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>58.4</v>
+        <v>58.26</v>
       </c>
       <c r="C182" t="n">
-        <v>29.46</v>
+        <v>29.47</v>
       </c>
       <c r="D182" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="E182" t="n">
         <v>0.64</v>
@@ -6641,16 +6641,16 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>82.36</v>
+        <v>82.19</v>
       </c>
       <c r="C183" t="n">
-        <v>39.4</v>
+        <v>39.44</v>
       </c>
       <c r="D183" t="n">
         <v>0.9</v>
       </c>
       <c r="E183" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="F183" t="n">
         <v>21</v>
@@ -6675,16 +6675,16 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>54.37</v>
+        <v>54.25</v>
       </c>
       <c r="C184" t="n">
-        <v>28.19</v>
+        <v>28.18</v>
       </c>
       <c r="D184" t="n">
         <v>1.02</v>
       </c>
       <c r="E184" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="F184" t="n">
         <v>12</v>
@@ -6709,10 +6709,10 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>64.81999999999999</v>
+        <v>64.73999999999999</v>
       </c>
       <c r="C185" t="n">
-        <v>30.26</v>
+        <v>30.3</v>
       </c>
       <c r="D185" t="n">
         <v>1.01</v>
@@ -6743,10 +6743,10 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>50.36</v>
+        <v>50.25</v>
       </c>
       <c r="C186" t="n">
-        <v>25.8</v>
+        <v>25.83</v>
       </c>
       <c r="D186" t="n">
         <v>0.91</v>
@@ -6777,13 +6777,13 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>128</v>
+        <v>127.69</v>
       </c>
       <c r="C187" t="n">
-        <v>64.20999999999999</v>
+        <v>64.23999999999999</v>
       </c>
       <c r="D187" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="E187" t="n">
         <v>0.21</v>
@@ -6798,7 +6798,7 @@
         <v>112</v>
       </c>
       <c r="I187" t="n">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="J187" t="n">
         <v>388</v>
@@ -6811,16 +6811,16 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>107.05</v>
+        <v>106.8</v>
       </c>
       <c r="C188" t="n">
-        <v>53.42</v>
+        <v>53.43</v>
       </c>
       <c r="D188" t="n">
         <v>0.83</v>
       </c>
       <c r="E188" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="F188" t="n">
         <v>24</v>
@@ -6845,13 +6845,13 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>100.68</v>
+        <v>100.42</v>
       </c>
       <c r="C189" t="n">
-        <v>51.14</v>
+        <v>51.18</v>
       </c>
       <c r="D189" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="E189" t="n">
         <v>0.24</v>
@@ -6879,13 +6879,13 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>73.31999999999999</v>
+        <v>73.14</v>
       </c>
       <c r="C190" t="n">
-        <v>39.16</v>
+        <v>39.22</v>
       </c>
       <c r="D190" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E190" t="n">
         <v>0.35</v>
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>62.43</v>
+        <v>62.29</v>
       </c>
       <c r="C191" t="n">
-        <v>55.9</v>
+        <v>55.84</v>
       </c>
       <c r="D191" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="E191" t="n">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="F191" t="n">
         <v>4</v>
@@ -6947,16 +6947,16 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>83.09</v>
+        <v>82.94</v>
       </c>
       <c r="C192" t="n">
-        <v>56.67</v>
+        <v>56.64</v>
       </c>
       <c r="D192" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="E192" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="F192" t="n">
         <v>12</v>
@@ -6981,16 +6981,16 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>102.06</v>
+        <v>101.84</v>
       </c>
       <c r="C193" t="n">
         <v>52.59</v>
       </c>
       <c r="D193" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="E193" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="F193" t="n">
         <v>24</v>
@@ -7015,16 +7015,16 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>126.39</v>
+        <v>126.11</v>
       </c>
       <c r="C194" t="n">
-        <v>65.48999999999999</v>
+        <v>65.53</v>
       </c>
       <c r="D194" t="n">
         <v>0.93</v>
       </c>
       <c r="E194" t="n">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="F194" t="n">
         <v>28</v>
@@ -7049,16 +7049,16 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>84.20999999999999</v>
+        <v>84</v>
       </c>
       <c r="C195" t="n">
-        <v>44.78</v>
+        <v>44.81</v>
       </c>
       <c r="D195" t="n">
         <v>0.96</v>
       </c>
       <c r="E195" t="n">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F195" t="n">
         <v>16</v>
@@ -7083,16 +7083,16 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>92.90000000000001</v>
+        <v>92.67</v>
       </c>
       <c r="C196" t="n">
-        <v>46</v>
+        <v>45.99</v>
       </c>
       <c r="D196" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="E196" t="n">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="F196" t="n">
         <v>24</v>
@@ -7104,7 +7104,7 @@
         <v>84</v>
       </c>
       <c r="I196" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J196" t="n">
         <v>304</v>
@@ -7117,16 +7117,16 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>94.28</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="C197" t="n">
-        <v>44.88</v>
+        <v>44.86</v>
       </c>
       <c r="D197" t="n">
         <v>0.88</v>
       </c>
       <c r="E197" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="F197" t="n">
         <v>24</v>
@@ -7151,7 +7151,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>134.72</v>
+        <v>134.69</v>
       </c>
       <c r="C198" t="n">
         <v>62.67</v>
@@ -7185,10 +7185,10 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>144.75</v>
+        <v>144.77</v>
       </c>
       <c r="C199" t="n">
-        <v>66.01000000000001</v>
+        <v>65.98</v>
       </c>
       <c r="D199" t="n">
         <v>0.98</v>
@@ -7222,13 +7222,13 @@
         <v>66.06</v>
       </c>
       <c r="C200" t="n">
-        <v>28.09</v>
+        <v>28.1</v>
       </c>
       <c r="D200" t="n">
         <v>0.54</v>
       </c>
       <c r="E200" t="n">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="F200" t="n">
         <v>16</v>
@@ -7253,16 +7253,16 @@
         </is>
       </c>
       <c r="B201" t="n">
-        <v>109.91</v>
+        <v>109.92</v>
       </c>
       <c r="C201" t="n">
-        <v>41.96</v>
+        <v>41.94</v>
       </c>
       <c r="D201" t="n">
         <v>0.76</v>
       </c>
       <c r="E201" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="F201" t="n">
         <v>36</v>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>155.72</v>
+        <v>155.8</v>
       </c>
       <c r="C202" t="n">
         <v>73.20999999999999</v>
@@ -7296,7 +7296,7 @@
         <v>0.9</v>
       </c>
       <c r="E202" t="n">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="F202" t="n">
         <v>36</v>
@@ -7321,10 +7321,10 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>185.37</v>
+        <v>185.34</v>
       </c>
       <c r="C203" t="n">
-        <v>78.06999999999999</v>
+        <v>78</v>
       </c>
       <c r="D203" t="n">
         <v>0.59</v>
@@ -7358,7 +7358,7 @@
         <v>166.22</v>
       </c>
       <c r="C204" t="n">
-        <v>72.40000000000001</v>
+        <v>72.37</v>
       </c>
       <c r="D204" t="n">
         <v>0.8</v>
@@ -7389,16 +7389,16 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>94.16</v>
+        <v>94.05</v>
       </c>
       <c r="C205" t="n">
-        <v>39.7</v>
+        <v>39.72</v>
       </c>
       <c r="D205" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="E205" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="F205" t="n">
         <v>24</v>
@@ -7423,13 +7423,13 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>64.16</v>
+        <v>64.17</v>
       </c>
       <c r="C206" t="n">
-        <v>27.55</v>
+        <v>27.51</v>
       </c>
       <c r="D206" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="E206" t="n">
         <v>0.44</v>
@@ -7457,10 +7457,10 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>297.07</v>
+        <v>297</v>
       </c>
       <c r="C207" t="n">
-        <v>128.6</v>
+        <v>128.49</v>
       </c>
       <c r="D207" t="n">
         <v>0.8</v>
@@ -7491,10 +7491,10 @@
         </is>
       </c>
       <c r="B208" t="n">
-        <v>166.96</v>
+        <v>166.92</v>
       </c>
       <c r="C208" t="n">
-        <v>68.93000000000001</v>
+        <v>68.84999999999999</v>
       </c>
       <c r="D208" t="n">
         <v>0.61</v>
@@ -7525,10 +7525,10 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>116.39</v>
+        <v>116.38</v>
       </c>
       <c r="C209" t="n">
-        <v>52.86</v>
+        <v>52.81</v>
       </c>
       <c r="D209" t="n">
         <v>0.79</v>
@@ -7546,7 +7546,7 @@
         <v>111</v>
       </c>
       <c r="I209" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J209" t="n">
         <v>375</v>
@@ -7559,10 +7559,10 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>43.43</v>
+        <v>43.44</v>
       </c>
       <c r="C210" t="n">
-        <v>22.56</v>
+        <v>22.54</v>
       </c>
       <c r="D210" t="n">
         <v>0.95</v>
@@ -7593,16 +7593,16 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>136.4</v>
+        <v>136.37</v>
       </c>
       <c r="C211" t="n">
-        <v>54.76</v>
+        <v>54.69</v>
       </c>
       <c r="D211" t="n">
         <v>0.77</v>
       </c>
       <c r="E211" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="F211" t="n">
         <v>42</v>
@@ -7627,16 +7627,16 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>110.77</v>
+        <v>110.79</v>
       </c>
       <c r="C212" t="n">
-        <v>52.39</v>
+        <v>52.36</v>
       </c>
       <c r="D212" t="n">
         <v>0.84</v>
       </c>
       <c r="E212" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F212" t="n">
         <v>28</v>
@@ -7661,10 +7661,10 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>71</v>
+        <v>71.02</v>
       </c>
       <c r="C213" t="n">
-        <v>29.43</v>
+        <v>29.42</v>
       </c>
       <c r="D213" t="n">
         <v>0.83</v>
@@ -7701,10 +7701,10 @@
         <v>14.74</v>
       </c>
       <c r="D214" t="n">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="E214" t="n">
-        <v>5.55</v>
+        <v>5.57</v>
       </c>
       <c r="F214" t="n">
         <v>2.4</v>
@@ -7729,13 +7729,13 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>19.48</v>
+        <v>19.49</v>
       </c>
       <c r="C215" t="n">
         <v>10.37</v>
       </c>
       <c r="D215" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="E215" t="n">
         <v>1.74</v>
@@ -7772,7 +7772,7 @@
         <v>1.14</v>
       </c>
       <c r="E216" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="F216" t="n">
         <v>2.4</v>
@@ -7797,10 +7797,10 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>39.65</v>
+        <v>39.67</v>
       </c>
       <c r="C217" t="n">
-        <v>20.03</v>
+        <v>20.02</v>
       </c>
       <c r="D217" t="n">
         <v>1.05</v>
@@ -7834,13 +7834,13 @@
         <v>4.85</v>
       </c>
       <c r="C218" t="n">
-        <v>3.73</v>
+        <v>3.72</v>
       </c>
       <c r="D218" t="n">
         <v>1.91</v>
       </c>
       <c r="E218" t="n">
-        <v>5.28</v>
+        <v>5.32</v>
       </c>
       <c r="F218" t="n">
         <v>0</v>
@@ -7865,16 +7865,16 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>206.37</v>
+        <v>206.39</v>
       </c>
       <c r="C219" t="n">
-        <v>82.04000000000001</v>
+        <v>81.95999999999999</v>
       </c>
       <c r="D219" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="E219" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="F219" t="n">
         <v>54</v>
@@ -7899,7 +7899,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>14.24</v>
+        <v>14.25</v>
       </c>
       <c r="C220" t="n">
         <v>8.470000000000001</v>
@@ -7908,7 +7908,7 @@
         <v>1.47</v>
       </c>
       <c r="E220" t="n">
-        <v>2.66</v>
+        <v>2.69</v>
       </c>
       <c r="F220" t="n">
         <v>2.4</v>
@@ -7936,13 +7936,13 @@
         <v>8.630000000000001</v>
       </c>
       <c r="C221" t="n">
-        <v>5.94</v>
+        <v>5.93</v>
       </c>
       <c r="D221" t="n">
         <v>1.97</v>
       </c>
       <c r="E221" t="n">
-        <v>5.89</v>
+        <v>5.92</v>
       </c>
       <c r="F221" t="n">
         <v>0</v>
@@ -7970,13 +7970,13 @@
         <v>10.73</v>
       </c>
       <c r="C222" t="n">
-        <v>6.41</v>
+        <v>6.4</v>
       </c>
       <c r="D222" t="n">
         <v>1.14</v>
       </c>
       <c r="E222" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="F222" t="n">
         <v>0</v>
@@ -8001,7 +8001,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>12.5</v>
+        <v>12.51</v>
       </c>
       <c r="C223" t="n">
         <v>7.41</v>
@@ -8010,7 +8010,7 @@
         <v>1.49</v>
       </c>
       <c r="E223" t="n">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="F223" t="n">
         <v>2.4</v>
@@ -8035,10 +8035,10 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>44.49</v>
+        <v>44.5</v>
       </c>
       <c r="C224" t="n">
-        <v>21.01</v>
+        <v>20.98</v>
       </c>
       <c r="D224" t="n">
         <v>0.92</v>
@@ -8072,7 +8072,7 @@
         <v>59.76</v>
       </c>
       <c r="C225" t="n">
-        <v>24.22</v>
+        <v>24.2</v>
       </c>
       <c r="D225" t="n">
         <v>0.85</v>
@@ -8146,7 +8146,7 @@
         <v>1.26</v>
       </c>
       <c r="E227" t="n">
-        <v>2.18</v>
+        <v>2.19</v>
       </c>
       <c r="F227" t="n">
         <v>2.4</v>
@@ -8171,16 +8171,16 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>13.34</v>
+        <v>13.33</v>
       </c>
       <c r="C228" t="n">
-        <v>8.81</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="D228" t="n">
         <v>1.52</v>
       </c>
       <c r="E228" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="F228" t="n">
         <v>0</v>
@@ -8205,16 +8205,16 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>111.88</v>
+        <v>111.93</v>
       </c>
       <c r="C229" t="n">
-        <v>52.85</v>
+        <v>52.81</v>
       </c>
       <c r="D229" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="E229" t="n">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="F229" t="n">
         <v>28.8</v>
@@ -8242,13 +8242,13 @@
         <v>9.33</v>
       </c>
       <c r="C230" t="n">
-        <v>5.85</v>
+        <v>5.84</v>
       </c>
       <c r="D230" t="n">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="E230" t="n">
-        <v>8.17</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>11.45</v>
+        <v>11.44</v>
       </c>
       <c r="C231" t="n">
         <v>7.89</v>
@@ -8307,16 +8307,16 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>86.73</v>
+        <v>86.66</v>
       </c>
       <c r="C232" t="n">
-        <v>47.64</v>
+        <v>47.56</v>
       </c>
       <c r="D232" t="n">
         <v>1.43</v>
       </c>
       <c r="E232" t="n">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="F232" t="n">
         <v>18</v>
@@ -8344,13 +8344,13 @@
         <v>20.35</v>
       </c>
       <c r="C233" t="n">
-        <v>10.61</v>
+        <v>10.6</v>
       </c>
       <c r="D233" t="n">
         <v>1.01</v>
       </c>
       <c r="E233" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="F233" t="n">
         <v>2.4</v>
@@ -8375,10 +8375,10 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>75.73999999999999</v>
+        <v>75.77</v>
       </c>
       <c r="C234" t="n">
-        <v>37.91</v>
+        <v>37.84</v>
       </c>
       <c r="D234" t="n">
         <v>1.15</v>
@@ -8409,16 +8409,16 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>15.84</v>
+        <v>15.85</v>
       </c>
       <c r="C235" t="n">
-        <v>9.1</v>
+        <v>9.09</v>
       </c>
       <c r="D235" t="n">
         <v>1.22</v>
       </c>
       <c r="E235" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="F235" t="n">
         <v>2.4</v>
@@ -8443,16 +8443,16 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>14.79</v>
+        <v>14.78</v>
       </c>
       <c r="C236" t="n">
-        <v>9.279999999999999</v>
+        <v>9.27</v>
       </c>
       <c r="D236" t="n">
         <v>1.61</v>
       </c>
       <c r="E236" t="n">
-        <v>3.7</v>
+        <v>3.72</v>
       </c>
       <c r="F236" t="n">
         <v>2.4</v>
@@ -8477,16 +8477,16 @@
         </is>
       </c>
       <c r="B237" t="n">
-        <v>7.28</v>
+        <v>7.27</v>
       </c>
       <c r="C237" t="n">
-        <v>5.21</v>
+        <v>5.2</v>
       </c>
       <c r="D237" t="n">
         <v>1.95</v>
       </c>
       <c r="E237" t="n">
-        <v>5.39</v>
+        <v>5.42</v>
       </c>
       <c r="F237" t="n">
         <v>0</v>
@@ -8511,7 +8511,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>15.04</v>
+        <v>15.06</v>
       </c>
       <c r="C238" t="n">
         <v>9.17</v>
@@ -8520,7 +8520,7 @@
         <v>1.51</v>
       </c>
       <c r="E238" t="n">
-        <v>2.92</v>
+        <v>2.91</v>
       </c>
       <c r="F238" t="n">
         <v>3</v>
@@ -8554,7 +8554,7 @@
         <v>1.52</v>
       </c>
       <c r="E239" t="n">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="F239" t="n">
         <v>0</v>
@@ -8582,13 +8582,13 @@
         <v>10.6</v>
       </c>
       <c r="C240" t="n">
-        <v>6.9</v>
+        <v>6.89</v>
       </c>
       <c r="D240" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="E240" t="n">
-        <v>3.8</v>
+        <v>3.81</v>
       </c>
       <c r="F240" t="n">
         <v>0</v>
@@ -8613,16 +8613,16 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>6.91</v>
+        <v>6.92</v>
       </c>
       <c r="C241" t="n">
-        <v>4.32</v>
+        <v>4.31</v>
       </c>
       <c r="D241" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="E241" t="n">
-        <v>3.34</v>
+        <v>3.35</v>
       </c>
       <c r="F241" t="n">
         <v>0</v>
@@ -8647,16 +8647,16 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>43.01</v>
+        <v>43.04</v>
       </c>
       <c r="C242" t="n">
-        <v>29.13</v>
+        <v>29.2</v>
       </c>
       <c r="D242" t="n">
         <v>2.05</v>
       </c>
       <c r="E242" t="n">
-        <v>4.07</v>
+        <v>4.03</v>
       </c>
       <c r="F242" t="n">
         <v>9.6</v>
@@ -8681,16 +8681,16 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>22.45</v>
+        <v>22.46</v>
       </c>
       <c r="C243" t="n">
-        <v>11.25</v>
+        <v>11.23</v>
       </c>
       <c r="D243" t="n">
         <v>1.11</v>
       </c>
       <c r="E243" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="F243" t="n">
         <v>4</v>
@@ -8715,16 +8715,16 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>54</v>
+        <v>54.03</v>
       </c>
       <c r="C244" t="n">
-        <v>24.24</v>
+        <v>24.22</v>
       </c>
       <c r="D244" t="n">
         <v>0.97</v>
       </c>
       <c r="E244" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="F244" t="n">
         <v>14</v>
@@ -8749,16 +8749,16 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>70.2</v>
+        <v>70.23</v>
       </c>
       <c r="C245" t="n">
-        <v>35.86</v>
+        <v>35.84</v>
       </c>
       <c r="D245" t="n">
         <v>1.03</v>
       </c>
       <c r="E245" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="F245" t="n">
         <v>18</v>
@@ -8783,16 +8783,16 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>14.57</v>
+        <v>14.56</v>
       </c>
       <c r="C246" t="n">
-        <v>8.08</v>
+        <v>8.07</v>
       </c>
       <c r="D246" t="n">
         <v>1.12</v>
       </c>
       <c r="E246" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="F246" t="n">
         <v>3</v>
@@ -8817,10 +8817,10 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>105.16</v>
+        <v>105.14</v>
       </c>
       <c r="C247" t="n">
-        <v>46.73</v>
+        <v>46.72</v>
       </c>
       <c r="D247" t="n">
         <v>0.65</v>
@@ -8851,16 +8851,16 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>70.29000000000001</v>
+        <v>70.27</v>
       </c>
       <c r="C248" t="n">
-        <v>37.78</v>
+        <v>37.73</v>
       </c>
       <c r="D248" t="n">
         <v>1.37</v>
       </c>
       <c r="E248" t="n">
-        <v>2.79</v>
+        <v>2.81</v>
       </c>
       <c r="F248" t="n">
         <v>14.4</v>
@@ -8885,16 +8885,16 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>12.86</v>
+        <v>12.87</v>
       </c>
       <c r="C249" t="n">
-        <v>8.08</v>
+        <v>8.07</v>
       </c>
       <c r="D249" t="n">
         <v>1.4</v>
       </c>
       <c r="E249" t="n">
-        <v>2.89</v>
+        <v>2.88</v>
       </c>
       <c r="F249" t="n">
         <v>0</v>
@@ -8919,10 +8919,10 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>78.13</v>
+        <v>78.16</v>
       </c>
       <c r="C250" t="n">
-        <v>38.57</v>
+        <v>38.53</v>
       </c>
       <c r="D250" t="n">
         <v>0.98</v>
@@ -8956,7 +8956,7 @@
         <v>9.869999999999999</v>
       </c>
       <c r="C251" t="n">
-        <v>6.34</v>
+        <v>6.33</v>
       </c>
       <c r="D251" t="n">
         <v>1.43</v>
@@ -8987,13 +8987,13 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>10.14</v>
+        <v>10.15</v>
       </c>
       <c r="C252" t="n">
         <v>7.54</v>
       </c>
       <c r="D252" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="E252" t="n">
         <v>4.44</v>
@@ -9021,10 +9021,10 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>92.54000000000001</v>
+        <v>92.56999999999999</v>
       </c>
       <c r="C253" t="n">
-        <v>46.08</v>
+        <v>46.04</v>
       </c>
       <c r="D253" t="n">
         <v>1.03</v>
@@ -9058,13 +9058,13 @@
         <v>17.42</v>
       </c>
       <c r="C254" t="n">
-        <v>9.44</v>
+        <v>9.43</v>
       </c>
       <c r="D254" t="n">
         <v>1.04</v>
       </c>
       <c r="E254" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="F254" t="n">
         <v>3</v>
@@ -9092,13 +9092,13 @@
         <v>16.41</v>
       </c>
       <c r="C255" t="n">
-        <v>9.27</v>
+        <v>9.26</v>
       </c>
       <c r="D255" t="n">
         <v>1.41</v>
       </c>
       <c r="E255" t="n">
-        <v>2.76</v>
+        <v>2.77</v>
       </c>
       <c r="F255" t="n">
         <v>3</v>
@@ -9123,16 +9123,16 @@
         </is>
       </c>
       <c r="B256" t="n">
-        <v>15.25</v>
+        <v>15.24</v>
       </c>
       <c r="C256" t="n">
-        <v>12.9</v>
+        <v>12.89</v>
       </c>
       <c r="D256" t="n">
         <v>1.97</v>
       </c>
       <c r="E256" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="F256" t="n">
         <v>0</v>
@@ -9157,16 +9157,16 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>41.21</v>
+        <v>41.22</v>
       </c>
       <c r="C257" t="n">
-        <v>18.77</v>
+        <v>18.75</v>
       </c>
       <c r="D257" t="n">
         <v>0.95</v>
       </c>
       <c r="E257" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F257" t="n">
         <v>12</v>
@@ -9194,13 +9194,13 @@
         <v>10.72</v>
       </c>
       <c r="C258" t="n">
-        <v>7.03</v>
+        <v>7.02</v>
       </c>
       <c r="D258" t="n">
         <v>1.86</v>
       </c>
       <c r="E258" t="n">
-        <v>5.17</v>
+        <v>5.19</v>
       </c>
       <c r="F258" t="n">
         <v>0</v>
@@ -9225,7 +9225,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>11.94</v>
+        <v>11.95</v>
       </c>
       <c r="C259" t="n">
         <v>9.67</v>
@@ -9262,7 +9262,7 @@
         <v>17.65</v>
       </c>
       <c r="C260" t="n">
-        <v>10.28</v>
+        <v>10.27</v>
       </c>
       <c r="D260" t="n">
         <v>1.28</v>
@@ -9293,10 +9293,10 @@
         </is>
       </c>
       <c r="B261" t="n">
-        <v>98.62</v>
+        <v>98.68000000000001</v>
       </c>
       <c r="C261" t="n">
-        <v>48.38</v>
+        <v>48.35</v>
       </c>
       <c r="D261" t="n">
         <v>1.05</v>
@@ -9330,7 +9330,7 @@
         <v>15.62</v>
       </c>
       <c r="C262" t="n">
-        <v>8.380000000000001</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="D262" t="n">
         <v>1.16</v>
@@ -9361,16 +9361,16 @@
         </is>
       </c>
       <c r="B263" t="n">
-        <v>9.68</v>
+        <v>9.67</v>
       </c>
       <c r="C263" t="n">
-        <v>6.03</v>
+        <v>6.02</v>
       </c>
       <c r="D263" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="E263" t="n">
-        <v>2.27</v>
+        <v>2.29</v>
       </c>
       <c r="F263" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>1.65</v>
       </c>
       <c r="E264" t="n">
-        <v>3.75</v>
+        <v>3.76</v>
       </c>
       <c r="F264" t="n">
         <v>0</v>
@@ -9438,7 +9438,7 @@
         <v>1.29</v>
       </c>
       <c r="E265" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="F265" t="n">
         <v>2</v>
@@ -9472,7 +9472,7 @@
         <v>1.69</v>
       </c>
       <c r="E266" t="n">
-        <v>3.89</v>
+        <v>3.9</v>
       </c>
       <c r="F266" t="n">
         <v>0</v>
@@ -9497,16 +9497,16 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>80.67</v>
+        <v>80.66</v>
       </c>
       <c r="C267" t="n">
-        <v>40.49</v>
+        <v>40.5</v>
       </c>
       <c r="D267" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="E267" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="F267" t="n">
         <v>16.8</v>
@@ -9534,13 +9534,13 @@
         <v>12.44</v>
       </c>
       <c r="C268" t="n">
-        <v>7.75</v>
+        <v>7.74</v>
       </c>
       <c r="D268" t="n">
         <v>1.48</v>
       </c>
       <c r="E268" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="F268" t="n">
         <v>2.4</v>
@@ -9565,16 +9565,16 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>18.65</v>
+        <v>18.66</v>
       </c>
       <c r="C269" t="n">
-        <v>9.609999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="D269" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="E269" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="F269" t="n">
         <v>2.4</v>
@@ -9602,13 +9602,13 @@
         <v>7.2</v>
       </c>
       <c r="C270" t="n">
-        <v>4.78</v>
+        <v>4.77</v>
       </c>
       <c r="D270" t="n">
         <v>1.52</v>
       </c>
       <c r="E270" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="F270" t="n">
         <v>0</v>
@@ -9633,7 +9633,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>11.71</v>
+        <v>11.72</v>
       </c>
       <c r="C271" t="n">
         <v>7.43</v>
@@ -9642,7 +9642,7 @@
         <v>1.35</v>
       </c>
       <c r="E271" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="F271" t="n">
         <v>0</v>
@@ -9667,16 +9667,16 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>107.55</v>
+        <v>107.52</v>
       </c>
       <c r="C272" t="n">
-        <v>45.68</v>
+        <v>45.64</v>
       </c>
       <c r="D272" t="n">
         <v>1.01</v>
       </c>
       <c r="E272" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F272" t="n">
         <v>33.6</v>
@@ -9701,16 +9701,16 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>17.72</v>
+        <v>17.73</v>
       </c>
       <c r="C273" t="n">
-        <v>11.23</v>
+        <v>11.22</v>
       </c>
       <c r="D273" t="n">
         <v>1.45</v>
       </c>
       <c r="E273" t="n">
-        <v>2.45</v>
+        <v>2.46</v>
       </c>
       <c r="F273" t="n">
         <v>2.4</v>
@@ -9735,13 +9735,13 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>54.86</v>
+        <v>54.93</v>
       </c>
       <c r="C274" t="n">
-        <v>26.93</v>
+        <v>26.91</v>
       </c>
       <c r="D274" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="E274" t="n">
         <v>0.74</v>
@@ -9769,16 +9769,16 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>29.88</v>
+        <v>29.8</v>
       </c>
       <c r="C275" t="n">
-        <v>16.54</v>
+        <v>16.53</v>
       </c>
       <c r="D275" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="E275" t="n">
-        <v>3.57</v>
+        <v>3.61</v>
       </c>
       <c r="F275" t="n">
         <v>4</v>
@@ -9803,16 +9803,16 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>30.89</v>
+        <v>30.83</v>
       </c>
       <c r="C276" t="n">
-        <v>17.41</v>
+        <v>17.43</v>
       </c>
       <c r="D276" t="n">
         <v>1.47</v>
       </c>
       <c r="E276" t="n">
-        <v>3.11</v>
+        <v>3.09</v>
       </c>
       <c r="F276" t="n">
         <v>4</v>
@@ -9837,16 +9837,16 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>33.83</v>
+        <v>33.8</v>
       </c>
       <c r="C277" t="n">
-        <v>18.82</v>
+        <v>18.81</v>
       </c>
       <c r="D277" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="E277" t="n">
-        <v>3.95</v>
+        <v>3.94</v>
       </c>
       <c r="F277" t="n">
         <v>4</v>
@@ -9871,16 +9871,16 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>26.33</v>
+        <v>26.34</v>
       </c>
       <c r="C278" t="n">
-        <v>18.51</v>
+        <v>18.52</v>
       </c>
       <c r="D278" t="n">
         <v>1.69</v>
       </c>
       <c r="E278" t="n">
-        <v>3.92</v>
+        <v>3.93</v>
       </c>
       <c r="F278" t="n">
         <v>0</v>
@@ -9905,16 +9905,16 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>33.13</v>
+        <v>33.08</v>
       </c>
       <c r="C279" t="n">
-        <v>16.9</v>
+        <v>16.93</v>
       </c>
       <c r="D279" t="n">
         <v>1.28</v>
       </c>
       <c r="E279" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="F279" t="n">
         <v>4</v>
@@ -9939,7 +9939,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>33.09</v>
+        <v>33.04</v>
       </c>
       <c r="C280" t="n">
         <v>18.35</v>
@@ -9948,7 +9948,7 @@
         <v>1.28</v>
       </c>
       <c r="E280" t="n">
-        <v>2.49</v>
+        <v>2.48</v>
       </c>
       <c r="F280" t="n">
         <v>4</v>
@@ -9960,7 +9960,7 @@
         <v>28</v>
       </c>
       <c r="I280" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J280" t="n">
         <v>160</v>
@@ -9973,10 +9973,10 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>134.44</v>
+        <v>134.33</v>
       </c>
       <c r="C281" t="n">
-        <v>66.29000000000001</v>
+        <v>66.14</v>
       </c>
       <c r="D281" t="n">
         <v>1.03</v>
@@ -9994,7 +9994,7 @@
         <v>122.4</v>
       </c>
       <c r="I281" t="n">
-        <v>297.6</v>
+        <v>295.2</v>
       </c>
       <c r="J281" t="n">
         <v>429.6</v>
@@ -10007,7 +10007,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>58.13</v>
+        <v>58.14</v>
       </c>
       <c r="C282" t="n">
         <v>29.19</v>
@@ -10041,10 +10041,10 @@
         </is>
       </c>
       <c r="B283" t="n">
-        <v>75.18000000000001</v>
+        <v>75.15000000000001</v>
       </c>
       <c r="C283" t="n">
-        <v>38.91</v>
+        <v>38.89</v>
       </c>
       <c r="D283" t="n">
         <v>1.14</v>
@@ -10075,13 +10075,13 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>148.05</v>
+        <v>148.06</v>
       </c>
       <c r="C284" t="n">
-        <v>68.47</v>
+        <v>68.41</v>
       </c>
       <c r="D284" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="E284" t="n">
         <v>0.8100000000000001</v>
@@ -10109,16 +10109,16 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>123.87</v>
+        <v>123.88</v>
       </c>
       <c r="C285" t="n">
-        <v>56.21</v>
+        <v>56.23</v>
       </c>
       <c r="D285" t="n">
         <v>0.92</v>
       </c>
       <c r="E285" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="F285" t="n">
         <v>33.6</v>
@@ -10130,7 +10130,7 @@
         <v>115.2</v>
       </c>
       <c r="I285" t="n">
-        <v>256.8</v>
+        <v>259.2</v>
       </c>
       <c r="J285" t="n">
         <v>386.4</v>
@@ -10143,10 +10143,10 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>122.61</v>
+        <v>122.63</v>
       </c>
       <c r="C286" t="n">
-        <v>57.75</v>
+        <v>57.73</v>
       </c>
       <c r="D286" t="n">
         <v>0.87</v>
@@ -10177,10 +10177,10 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>111.21</v>
+        <v>111.18</v>
       </c>
       <c r="C287" t="n">
-        <v>55.15</v>
+        <v>55.08</v>
       </c>
       <c r="D287" t="n">
         <v>0.97</v>
@@ -10211,16 +10211,16 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>47.24</v>
+        <v>47.12</v>
       </c>
       <c r="C288" t="n">
-        <v>26.8</v>
+        <v>26.87</v>
       </c>
       <c r="D288" t="n">
         <v>1.06</v>
       </c>
       <c r="E288" t="n">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
       <c r="F288" t="n">
         <v>0</v>
@@ -10248,7 +10248,7 @@
         <v>11.63</v>
       </c>
       <c r="C289" t="n">
-        <v>6.64</v>
+        <v>6.63</v>
       </c>
       <c r="D289" t="n">
         <v>0.97</v>
@@ -10279,16 +10279,16 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>76.48999999999999</v>
+        <v>76.39</v>
       </c>
       <c r="C290" t="n">
-        <v>41.62</v>
+        <v>41.58</v>
       </c>
       <c r="D290" t="n">
         <v>0.95</v>
       </c>
       <c r="E290" t="n">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="F290" t="n">
         <v>0</v>
@@ -10313,16 +10313,16 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>9.880000000000001</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="C291" t="n">
-        <v>6.03</v>
+        <v>5.98</v>
       </c>
       <c r="D291" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="E291" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="F291" t="n">
         <v>0</v>
@@ -10347,16 +10347,16 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>35.76</v>
+        <v>35.78</v>
       </c>
       <c r="C292" t="n">
-        <v>18.78</v>
+        <v>18.74</v>
       </c>
       <c r="D292" t="n">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="E292" t="n">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="F292" t="n">
         <v>0</v>
@@ -10365,7 +10365,7 @@
         <v>12</v>
       </c>
       <c r="H292" t="n">
-        <v>32.38</v>
+        <v>33.6</v>
       </c>
       <c r="I292" t="n">
         <v>81.59999999999999</v>
@@ -10381,16 +10381,16 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>112.13</v>
+        <v>112.16</v>
       </c>
       <c r="C293" t="n">
-        <v>53.33</v>
+        <v>53.32</v>
       </c>
       <c r="D293" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="E293" t="n">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="F293" t="n">
         <v>30</v>
@@ -10399,7 +10399,7 @@
         <v>39</v>
       </c>
       <c r="H293" t="n">
-        <v>102</v>
+        <v>103.5</v>
       </c>
       <c r="I293" t="n">
         <v>240</v>
@@ -10415,16 +10415,16 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>38.12</v>
+        <v>37.56</v>
       </c>
       <c r="C294" t="n">
-        <v>53.49</v>
+        <v>53.58</v>
       </c>
       <c r="D294" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="E294" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="F294" t="n">
         <v>0</v>
@@ -10433,10 +10433,10 @@
         <v>0</v>
       </c>
       <c r="H294" t="n">
-        <v>12.02</v>
+        <v>12</v>
       </c>
       <c r="I294" t="n">
-        <v>181.5</v>
+        <v>183</v>
       </c>
       <c r="J294" t="n">
         <v>232.5</v>
@@ -10449,16 +10449,16 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>108.52</v>
+        <v>108.54</v>
       </c>
       <c r="C295" t="n">
-        <v>52.11</v>
+        <v>52.06</v>
       </c>
       <c r="D295" t="n">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="E295" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="F295" t="n">
         <v>24</v>
@@ -10483,16 +10483,16 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>8.44</v>
+        <v>8.34</v>
       </c>
       <c r="C296" t="n">
-        <v>9.380000000000001</v>
+        <v>9.42</v>
       </c>
       <c r="D296" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="E296" t="n">
-        <v>2.85</v>
+        <v>2.83</v>
       </c>
       <c r="F296" t="n">
         <v>0</v>
@@ -10501,7 +10501,7 @@
         <v>0</v>
       </c>
       <c r="H296" t="n">
-        <v>5.75</v>
+        <v>4.8</v>
       </c>
       <c r="I296" t="n">
         <v>33.6</v>
@@ -10517,16 +10517,16 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>10.98</v>
+        <v>10.8</v>
       </c>
       <c r="C297" t="n">
-        <v>12.38</v>
+        <v>12.45</v>
       </c>
       <c r="D297" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="E297" t="n">
-        <v>2.86</v>
+        <v>2.83</v>
       </c>
       <c r="F297" t="n">
         <v>0</v>
@@ -10560,7 +10560,7 @@
         <v>0.95</v>
       </c>
       <c r="E298" t="n">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="F298" t="n">
         <v>16.8</v>
@@ -10619,16 +10619,16 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>8.59</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="C300" t="n">
-        <v>9.199999999999999</v>
+        <v>9.26</v>
       </c>
       <c r="D300" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="E300" t="n">
-        <v>3.67</v>
+        <v>3.63</v>
       </c>
       <c r="F300" t="n">
         <v>0</v>
@@ -10637,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="H300" t="n">
-        <v>7.2</v>
+        <v>6.16</v>
       </c>
       <c r="I300" t="n">
         <v>33.6</v>
@@ -10653,7 +10653,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>82.95</v>
+        <v>82.95999999999999</v>
       </c>
       <c r="C301" t="n">
         <v>43.46</v>
@@ -10687,16 +10687,16 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>46.36</v>
+        <v>46.38</v>
       </c>
       <c r="C302" t="n">
-        <v>24.2</v>
+        <v>24.19</v>
       </c>
       <c r="D302" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="E302" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="F302" t="n">
         <v>9</v>
@@ -10721,16 +10721,16 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>29.97</v>
+        <v>30.09</v>
       </c>
       <c r="C303" t="n">
-        <v>15.83</v>
+        <v>15.96</v>
       </c>
       <c r="D303" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="E303" t="n">
-        <v>1.05</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F303" t="n">
         <v>4.8</v>
@@ -10755,16 +10755,16 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>9.039999999999999</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="C304" t="n">
-        <v>4.16</v>
+        <v>4.15</v>
       </c>
       <c r="D304" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="E304" t="n">
-        <v>3.59</v>
+        <v>3.54</v>
       </c>
       <c r="F304" t="n">
         <v>0</v>
@@ -10773,7 +10773,7 @@
         <v>2.4</v>
       </c>
       <c r="H304" t="n">
-        <v>8.529999999999999</v>
+        <v>8.56</v>
       </c>
       <c r="I304" t="n">
         <v>19.2</v>
@@ -10789,7 +10789,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>59.58</v>
+        <v>59.6</v>
       </c>
       <c r="C305" t="n">
         <v>30.61</v>
@@ -10823,16 +10823,16 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>36.33</v>
+        <v>36.36</v>
       </c>
       <c r="C306" t="n">
-        <v>20.27</v>
+        <v>20.21</v>
       </c>
       <c r="D306" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="E306" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="F306" t="n">
         <v>0</v>
@@ -10857,16 +10857,16 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>18.16</v>
+        <v>18.17</v>
       </c>
       <c r="C307" t="n">
-        <v>15.79</v>
+        <v>15.8</v>
       </c>
       <c r="D307" t="n">
         <v>1.48</v>
       </c>
       <c r="E307" t="n">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="F307" t="n">
         <v>0</v>
@@ -10891,7 +10891,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>57.83</v>
+        <v>57.84</v>
       </c>
       <c r="C308" t="n">
         <v>27.6</v>
@@ -10925,13 +10925,13 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>33.75</v>
+        <v>33.77</v>
       </c>
       <c r="C309" t="n">
         <v>18.56</v>
       </c>
       <c r="D309" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="E309" t="n">
         <v>1.18</v>
@@ -10959,16 +10959,16 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>36.72</v>
+        <v>36.7</v>
       </c>
       <c r="C310" t="n">
-        <v>21.05</v>
+        <v>21.03</v>
       </c>
       <c r="D310" t="n">
         <v>1.08</v>
       </c>
       <c r="E310" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="F310" t="n">
         <v>6</v>
@@ -10993,16 +10993,16 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>42.41</v>
+        <v>42.44</v>
       </c>
       <c r="C311" t="n">
-        <v>26.82</v>
+        <v>26.84</v>
       </c>
       <c r="D311" t="n">
         <v>1.24</v>
       </c>
       <c r="E311" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="F311" t="n">
         <v>3</v>
@@ -11027,16 +11027,16 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>35.58</v>
+        <v>35.59</v>
       </c>
       <c r="C312" t="n">
-        <v>19.07</v>
+        <v>19.06</v>
       </c>
       <c r="D312" t="n">
         <v>1</v>
       </c>
       <c r="E312" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="F312" t="n">
         <v>2</v>
@@ -11061,13 +11061,13 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>28.17</v>
+        <v>28.22</v>
       </c>
       <c r="C313" t="n">
-        <v>13.62</v>
+        <v>13.6</v>
       </c>
       <c r="D313" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="E313" t="n">
         <v>0.67</v>
@@ -11095,16 +11095,16 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>18.55</v>
+        <v>18.58</v>
       </c>
       <c r="C314" t="n">
-        <v>11.49</v>
+        <v>11.52</v>
       </c>
       <c r="D314" t="n">
         <v>1.39</v>
       </c>
       <c r="E314" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="F314" t="n">
         <v>2</v>
@@ -11129,16 +11129,16 @@
         </is>
       </c>
       <c r="B315" t="n">
-        <v>22.35</v>
+        <v>22.25</v>
       </c>
       <c r="C315" t="n">
-        <v>12.89</v>
+        <v>12.85</v>
       </c>
       <c r="D315" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="E315" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="F315" t="n">
         <v>4.8</v>
@@ -11163,16 +11163,16 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>47.52</v>
+        <v>47.5</v>
       </c>
       <c r="C316" t="n">
-        <v>27.57</v>
+        <v>27.5</v>
       </c>
       <c r="D316" t="n">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E316" t="n">
-        <v>0.84</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F316" t="n">
         <v>0</v>
@@ -11184,7 +11184,7 @@
         <v>40</v>
       </c>
       <c r="I316" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J316" t="n">
         <v>190</v>
@@ -11197,16 +11197,16 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>23.86</v>
+        <v>23.88</v>
       </c>
       <c r="C317" t="n">
-        <v>14.03</v>
+        <v>14.01</v>
       </c>
       <c r="D317" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="E317" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="F317" t="n">
         <v>0</v>
@@ -11234,13 +11234,13 @@
         <v>20.85</v>
       </c>
       <c r="C318" t="n">
-        <v>15.03</v>
+        <v>15.02</v>
       </c>
       <c r="D318" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="E318" t="n">
-        <v>4.07</v>
+        <v>4.08</v>
       </c>
       <c r="F318" t="n">
         <v>0</v>
@@ -11265,10 +11265,10 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>57.02</v>
+        <v>57.03</v>
       </c>
       <c r="C319" t="n">
-        <v>28.99</v>
+        <v>28.98</v>
       </c>
       <c r="D319" t="n">
         <v>0.84</v>
@@ -11302,7 +11302,7 @@
         <v>28.26</v>
       </c>
       <c r="C320" t="n">
-        <v>15.37</v>
+        <v>15.36</v>
       </c>
       <c r="D320" t="n">
         <v>1.1</v>
@@ -11333,16 +11333,16 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>32.1</v>
+        <v>32.05</v>
       </c>
       <c r="C321" t="n">
-        <v>18.57</v>
+        <v>18.62</v>
       </c>
       <c r="D321" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="E321" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="F321" t="n">
         <v>7.2</v>
@@ -11367,7 +11367,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>41.28</v>
+        <v>41.3</v>
       </c>
       <c r="C322" t="n">
         <v>22.96</v>
@@ -11376,7 +11376,7 @@
         <v>1.08</v>
       </c>
       <c r="E322" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="F322" t="n">
         <v>9</v>
@@ -11435,16 +11435,16 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>31.89</v>
+        <v>31.88</v>
       </c>
       <c r="C324" t="n">
-        <v>17.77</v>
+        <v>17.76</v>
       </c>
       <c r="D324" t="n">
         <v>1.22</v>
       </c>
       <c r="E324" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="F324" t="n">
         <v>5</v>
@@ -11469,16 +11469,16 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>51.55</v>
+        <v>51.42</v>
       </c>
       <c r="C325" t="n">
         <v>27.47</v>
       </c>
       <c r="D325" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="E325" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="F325" t="n">
         <v>12</v>
@@ -11503,16 +11503,16 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>18.06</v>
+        <v>18.05</v>
       </c>
       <c r="C326" t="n">
         <v>15.83</v>
       </c>
       <c r="D326" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="E326" t="n">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="F326" t="n">
         <v>0</v>
@@ -11571,13 +11571,13 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>7.85</v>
+        <v>7.84</v>
       </c>
       <c r="C328" t="n">
-        <v>4.54</v>
+        <v>4.53</v>
       </c>
       <c r="D328" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="E328" t="n">
         <v>2.42</v>
@@ -11605,7 +11605,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>66.25</v>
+        <v>66.27</v>
       </c>
       <c r="C329" t="n">
         <v>36.21</v>
@@ -11639,16 +11639,16 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>28.36</v>
+        <v>28.33</v>
       </c>
       <c r="C330" t="n">
-        <v>17.27</v>
+        <v>17.24</v>
       </c>
       <c r="D330" t="n">
         <v>1.35</v>
       </c>
       <c r="E330" t="n">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="F330" t="n">
         <v>3</v>
@@ -11673,7 +11673,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>19.82</v>
+        <v>19.83</v>
       </c>
       <c r="C331" t="n">
         <v>11.1</v>
@@ -11694,7 +11694,7 @@
         <v>16.8</v>
       </c>
       <c r="I331" t="n">
-        <v>45.6</v>
+        <v>48</v>
       </c>
       <c r="J331" t="n">
         <v>84</v>
@@ -11707,16 +11707,16 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>23.33</v>
+        <v>23.31</v>
       </c>
       <c r="C332" t="n">
-        <v>16.37</v>
+        <v>16.32</v>
       </c>
       <c r="D332" t="n">
         <v>1.59</v>
       </c>
       <c r="E332" t="n">
-        <v>3.27</v>
+        <v>3.3</v>
       </c>
       <c r="F332" t="n">
         <v>2.4</v>
@@ -11741,7 +11741,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>15.84</v>
+        <v>15.83</v>
       </c>
       <c r="C333" t="n">
         <v>8.470000000000001</v>
@@ -11778,13 +11778,13 @@
         <v>18.6</v>
       </c>
       <c r="C334" t="n">
-        <v>15.41</v>
+        <v>15.37</v>
       </c>
       <c r="D334" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="E334" t="n">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
       <c r="F334" t="n">
         <v>0</v>
@@ -11809,10 +11809,10 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>29.76</v>
+        <v>29.74</v>
       </c>
       <c r="C335" t="n">
-        <v>17.38</v>
+        <v>17.34</v>
       </c>
       <c r="D335" t="n">
         <v>1.2</v>
@@ -11843,16 +11843,16 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>13.23</v>
+        <v>13.24</v>
       </c>
       <c r="C336" t="n">
-        <v>10.66</v>
+        <v>10.67</v>
       </c>
       <c r="D336" t="n">
         <v>1.46</v>
       </c>
       <c r="E336" t="n">
-        <v>2.19</v>
+        <v>2.2</v>
       </c>
       <c r="F336" t="n">
         <v>0</v>
@@ -11877,16 +11877,16 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>14.98</v>
+        <v>14.97</v>
       </c>
       <c r="C337" t="n">
-        <v>8.44</v>
+        <v>8.43</v>
       </c>
       <c r="D337" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="E337" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="F337" t="n">
         <v>0</v>
@@ -11914,7 +11914,7 @@
         <v>35.71</v>
       </c>
       <c r="C338" t="n">
-        <v>18.89</v>
+        <v>18.9</v>
       </c>
       <c r="D338" t="n">
         <v>1.01</v>
@@ -11945,7 +11945,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>65.83</v>
+        <v>65.84</v>
       </c>
       <c r="C339" t="n">
         <v>37.84</v>
@@ -11954,7 +11954,7 @@
         <v>1.12</v>
       </c>
       <c r="E339" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="F339" t="n">
         <v>14.4</v>
@@ -11979,10 +11979,10 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>64.81999999999999</v>
+        <v>64.81</v>
       </c>
       <c r="C340" t="n">
-        <v>35.56</v>
+        <v>35.55</v>
       </c>
       <c r="D340" t="n">
         <v>1.09</v>
@@ -12013,10 +12013,10 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>54.96</v>
+        <v>54.97</v>
       </c>
       <c r="C341" t="n">
-        <v>29.39</v>
+        <v>29.38</v>
       </c>
       <c r="D341" t="n">
         <v>1</v>
@@ -12047,16 +12047,16 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>49.68</v>
+        <v>49.7</v>
       </c>
       <c r="C342" t="n">
-        <v>29.51</v>
+        <v>29.5</v>
       </c>
       <c r="D342" t="n">
         <v>1.26</v>
       </c>
       <c r="E342" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="F342" t="n">
         <v>9</v>
@@ -12081,16 +12081,16 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>76.17</v>
+        <v>76.29000000000001</v>
       </c>
       <c r="C343" t="n">
-        <v>40.51</v>
+        <v>40.58</v>
       </c>
       <c r="D343" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="E343" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="F343" t="n">
         <v>21.6</v>
@@ -12115,16 +12115,16 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>51.79</v>
+        <v>51.8</v>
       </c>
       <c r="C344" t="n">
-        <v>28.59</v>
+        <v>28.57</v>
       </c>
       <c r="D344" t="n">
         <v>1.15</v>
       </c>
       <c r="E344" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="F344" t="n">
         <v>12</v>
@@ -12149,16 +12149,16 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>36.49</v>
+        <v>36.46</v>
       </c>
       <c r="C345" t="n">
-        <v>22.6</v>
+        <v>22.55</v>
       </c>
       <c r="D345" t="n">
         <v>1.17</v>
       </c>
       <c r="E345" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="F345" t="n">
         <v>3</v>
@@ -12186,13 +12186,13 @@
         <v>49.08</v>
       </c>
       <c r="C346" t="n">
-        <v>29.23</v>
+        <v>29.22</v>
       </c>
       <c r="D346" t="n">
         <v>1.31</v>
       </c>
       <c r="E346" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="F346" t="n">
         <v>12</v>
@@ -12220,7 +12220,7 @@
         <v>55.16</v>
       </c>
       <c r="C347" t="n">
-        <v>29.16</v>
+        <v>29.15</v>
       </c>
       <c r="D347" t="n">
         <v>1.06</v>
@@ -12254,13 +12254,13 @@
         <v>52.37</v>
       </c>
       <c r="C348" t="n">
-        <v>31.28</v>
+        <v>31.26</v>
       </c>
       <c r="D348" t="n">
         <v>1.31</v>
       </c>
       <c r="E348" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="F348" t="n">
         <v>12</v>
@@ -12285,10 +12285,10 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>56.12</v>
+        <v>56.08</v>
       </c>
       <c r="C349" t="n">
-        <v>34.61</v>
+        <v>34.55</v>
       </c>
       <c r="D349" t="n">
         <v>1.26</v>
@@ -12322,13 +12322,13 @@
         <v>28.14</v>
       </c>
       <c r="C350" t="n">
-        <v>18.07</v>
+        <v>18.09</v>
       </c>
       <c r="D350" t="n">
         <v>1.36</v>
       </c>
       <c r="E350" t="n">
-        <v>2.11</v>
+        <v>2.13</v>
       </c>
       <c r="F350" t="n">
         <v>3</v>
@@ -12353,10 +12353,10 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>53.4</v>
+        <v>53.41</v>
       </c>
       <c r="C351" t="n">
-        <v>30.86</v>
+        <v>30.85</v>
       </c>
       <c r="D351" t="n">
         <v>1.19</v>
@@ -12387,10 +12387,10 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>51.09</v>
+        <v>51.1</v>
       </c>
       <c r="C352" t="n">
-        <v>29.1</v>
+        <v>29.12</v>
       </c>
       <c r="D352" t="n">
         <v>1.2</v>
@@ -12421,16 +12421,16 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>51.48</v>
+        <v>51.46</v>
       </c>
       <c r="C353" t="n">
-        <v>27.67</v>
+        <v>27.65</v>
       </c>
       <c r="D353" t="n">
         <v>1.09</v>
       </c>
       <c r="E353" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="F353" t="n">
         <v>12</v>
@@ -12458,13 +12458,13 @@
         <v>60.12</v>
       </c>
       <c r="C354" t="n">
-        <v>33.07</v>
+        <v>33.06</v>
       </c>
       <c r="D354" t="n">
         <v>1.12</v>
       </c>
       <c r="E354" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="F354" t="n">
         <v>14.4</v>
@@ -12489,10 +12489,10 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>50.1</v>
+        <v>50.12</v>
       </c>
       <c r="C355" t="n">
-        <v>29.94</v>
+        <v>29.93</v>
       </c>
       <c r="D355" t="n">
         <v>1.07</v>
@@ -12526,13 +12526,13 @@
         <v>72.28</v>
       </c>
       <c r="C356" t="n">
-        <v>39.64</v>
+        <v>39.61</v>
       </c>
       <c r="D356" t="n">
         <v>1.09</v>
       </c>
       <c r="E356" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="F356" t="n">
         <v>16.8</v>
@@ -12557,7 +12557,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>49.43</v>
+        <v>49.42</v>
       </c>
       <c r="C357" t="n">
         <v>28.53</v>
@@ -12566,7 +12566,7 @@
         <v>1.03</v>
       </c>
       <c r="E357" t="n">
-        <v>0.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F357" t="n">
         <v>12</v>
@@ -12591,16 +12591,16 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>44.86</v>
+        <v>44.98</v>
       </c>
       <c r="C358" t="n">
-        <v>26.18</v>
+        <v>26.26</v>
       </c>
       <c r="D358" t="n">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="E358" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F358" t="n">
         <v>9</v>
@@ -12634,7 +12634,7 @@
         <v>1.15</v>
       </c>
       <c r="E359" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F359" t="n">
         <v>9</v>
@@ -12659,16 +12659,16 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>49.32</v>
+        <v>49.33</v>
       </c>
       <c r="C360" t="n">
-        <v>26.98</v>
+        <v>26.99</v>
       </c>
       <c r="D360" t="n">
         <v>0.99</v>
       </c>
       <c r="E360" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="F360" t="n">
         <v>9</v>
@@ -12693,10 +12693,10 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>53.65</v>
+        <v>53.62</v>
       </c>
       <c r="C361" t="n">
-        <v>34.54</v>
+        <v>34.5</v>
       </c>
       <c r="D361" t="n">
         <v>1.32</v>
@@ -12727,10 +12727,10 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>49.55</v>
+        <v>49.54</v>
       </c>
       <c r="C362" t="n">
-        <v>28.58</v>
+        <v>28.56</v>
       </c>
       <c r="D362" t="n">
         <v>1.09</v>
@@ -12767,10 +12767,10 @@
         <v>29.91</v>
       </c>
       <c r="D363" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="E363" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="F363" t="n">
         <v>9</v>
@@ -12795,16 +12795,16 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>48.16</v>
+        <v>48.3</v>
       </c>
       <c r="C364" t="n">
-        <v>27.55</v>
+        <v>27.6</v>
       </c>
       <c r="D364" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="E364" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="F364" t="n">
         <v>9</v>
@@ -12829,10 +12829,10 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>46.65</v>
+        <v>46.66</v>
       </c>
       <c r="C365" t="n">
-        <v>25.11</v>
+        <v>25.12</v>
       </c>
       <c r="D365" t="n">
         <v>0.91</v>
@@ -12866,13 +12866,13 @@
         <v>57</v>
       </c>
       <c r="C366" t="n">
-        <v>33.42</v>
+        <v>33.4</v>
       </c>
       <c r="D366" t="n">
         <v>1.2</v>
       </c>
       <c r="E366" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="F366" t="n">
         <v>12</v>
@@ -12900,7 +12900,7 @@
         <v>47.8</v>
       </c>
       <c r="C367" t="n">
-        <v>25.92</v>
+        <v>25.93</v>
       </c>
       <c r="D367" t="n">
         <v>1.07</v>
@@ -12968,7 +12968,7 @@
         <v>298.07</v>
       </c>
       <c r="C369" t="n">
-        <v>138.02</v>
+        <v>137.97</v>
       </c>
       <c r="D369" t="n">
         <v>0.71</v>
@@ -13033,10 +13033,10 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>403.63</v>
+        <v>403.6</v>
       </c>
       <c r="C371" t="n">
-        <v>179.97</v>
+        <v>179.91</v>
       </c>
       <c r="D371" t="n">
         <v>0.61</v>
